--- a/テスト項目書.xlsx
+++ b/テスト項目書.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C879F6D1-1255-40B4-B2CB-8344A7370C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A07E43-24F7-4DBC-8137-CEA20DA2B5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31560" yWindow="165" windowWidth="21960" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16620" yWindow="915" windowWidth="12870" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="72">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -713,16 +713,49 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>レポート テスト項目</t>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>需要度が★★★★☆、★★★☆☆、★★☆☆☆などの</t>
+    <rPh sb="0" eb="3">
+      <t>ジュヨウド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ように降順で表示されている。</t>
+    <rPh sb="3" eb="5">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>需要度をグループレベルで表示する</t>
+    <rPh sb="0" eb="3">
+      <t>ジュヨウド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,13 +790,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1162,7 +1188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1251,18 +1277,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1290,48 +1304,231 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="55" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="55" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="55" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="55" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="55" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="55" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="55" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1340,189 +1537,6 @@
     </xf>
     <xf numFmtId="55" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="55" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="55" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="55" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="55" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="55" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1805,10 +1819,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:AQ441"/>
+  <dimension ref="A2:AQ415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R91" sqref="R91"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1821,89 +1835,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="7:24" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="51"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="100"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="W2" s="8"/>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="7:24" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="54"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="103"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="W3" s="8"/>
       <c r="X3" s="3"/>
     </row>
     <row r="36" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="55" t="s">
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
+      <c r="O36" s="104"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="104"/>
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="52"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="56">
+      <c r="A37" s="101"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="105">
         <v>44743</v>
       </c>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -1927,26 +1941,26 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="64"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="65"/>
-      <c r="R39" s="43" t="s">
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="107"/>
+      <c r="N39" s="107"/>
+      <c r="O39" s="107"/>
+      <c r="P39" s="107"/>
+      <c r="Q39" s="108"/>
+      <c r="R39" s="112" t="s">
         <v>1</v>
       </c>
       <c r="S39" s="3"/>
@@ -1965,24 +1979,24 @@
       <c r="AQ39" s="7"/>
     </row>
     <row r="40" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="66"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="44"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
+      <c r="N40" s="110"/>
+      <c r="O40" s="110"/>
+      <c r="P40" s="110"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="113"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="2"/>
@@ -1999,28 +2013,28 @@
       <c r="AQ40" s="7"/>
     </row>
     <row r="41" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="108" t="s">
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="37" t="s">
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="33" t="s">
         <v>5</v>
       </c>
       <c r="S41" s="3"/>
@@ -2039,14 +2053,14 @@
       <c r="AP41" s="7"/>
     </row>
     <row r="42" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="86"/>
-      <c r="C42" s="85" t="s">
+      <c r="B42" s="57"/>
+      <c r="C42" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="86"/>
+      <c r="D42" s="57"/>
       <c r="E42" s="10" t="s">
         <v>15</v>
       </c>
@@ -2070,12 +2084,12 @@
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="79"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="85" t="s">
+      <c r="A43" s="50"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="86"/>
+      <c r="D43" s="57"/>
       <c r="E43" s="10" t="s">
         <v>16</v>
       </c>
@@ -2099,12 +2113,12 @@
       <c r="U43" s="2"/>
     </row>
     <row r="44" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="79"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="85" t="s">
+      <c r="A44" s="50"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="86"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="9" t="s">
         <v>17</v>
       </c>
@@ -2139,10 +2153,10 @@
       <c r="AP44" s="7"/>
     </row>
     <row r="45" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="79"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="80"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="51"/>
       <c r="E45" s="21" t="s">
         <v>18</v>
       </c>
@@ -2158,7 +2172,7 @@
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="14"/>
-      <c r="R45" s="39"/>
+      <c r="R45" s="35"/>
       <c r="S45" s="3"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
@@ -2175,27 +2189,27 @@
       <c r="AP45" s="7"/>
     </row>
     <row r="46" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="79"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="85" t="s">
+      <c r="A46" s="50"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="86"/>
-      <c r="E46" s="74" t="s">
+      <c r="D46" s="57"/>
+      <c r="E46" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="76"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="47"/>
       <c r="R46" s="18" t="s">
         <v>21</v>
       </c>
@@ -2215,26 +2229,26 @@
       <c r="AP46" s="7"/>
     </row>
     <row r="47" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="79"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="25"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="103" t="s">
+      <c r="C47" s="36"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="106"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="106"/>
-      <c r="O47" s="106"/>
-      <c r="P47" s="106"/>
-      <c r="Q47" s="107"/>
-      <c r="R47" s="39"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="69"/>
+      <c r="P47" s="69"/>
+      <c r="Q47" s="70"/>
+      <c r="R47" s="35"/>
       <c r="S47" s="23"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
@@ -2251,12 +2265,12 @@
       <c r="AP47" s="7"/>
     </row>
     <row r="48" spans="1:43" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="79"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="25"/>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="86"/>
+      <c r="D48" s="57"/>
       <c r="E48" s="10" t="s">
         <v>31</v>
       </c>
@@ -2291,10 +2305,10 @@
       <c r="AP48" s="7"/>
     </row>
     <row r="49" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="79"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="25"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="102"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
       <c r="E49" s="12" t="s">
         <v>38</v>
       </c>
@@ -2310,7 +2324,7 @@
       <c r="O49" s="13"/>
       <c r="P49" s="13"/>
       <c r="Q49" s="14"/>
-      <c r="R49" s="39"/>
+      <c r="R49" s="35"/>
       <c r="S49" s="23"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
@@ -2327,13 +2341,13 @@
       <c r="AP49" s="7"/>
     </row>
     <row r="50" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="79"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="25"/>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="86"/>
-      <c r="E50" s="78" t="s">
+      <c r="D50" s="57"/>
+      <c r="E50" s="49" t="s">
         <v>30</v>
       </c>
       <c r="F50" s="23"/>
@@ -2367,11 +2381,11 @@
       <c r="AP50" s="7"/>
     </row>
     <row r="51" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="79"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="25"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="105" t="s">
+      <c r="C51" s="36"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="68" t="s">
         <v>35</v>
       </c>
       <c r="F51" s="13"/>
@@ -2386,7 +2400,7 @@
       <c r="O51" s="13"/>
       <c r="P51" s="13"/>
       <c r="Q51" s="14"/>
-      <c r="R51" s="104"/>
+      <c r="R51" s="67"/>
       <c r="S51" s="23"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
@@ -2403,12 +2417,12 @@
       <c r="AP51" s="7"/>
     </row>
     <row r="52" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="79"/>
+      <c r="A52" s="50"/>
       <c r="B52" s="25"/>
-      <c r="C52" s="85" t="s">
+      <c r="C52" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="86"/>
+      <c r="D52" s="57"/>
       <c r="E52" s="10" t="s">
         <v>32</v>
       </c>
@@ -2443,10 +2457,10 @@
       <c r="AP52" s="7"/>
     </row>
     <row r="53" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="79"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="25"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="80"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="51"/>
       <c r="E53" s="23" t="s">
         <v>37</v>
       </c>
@@ -2462,7 +2476,7 @@
       <c r="O53" s="23"/>
       <c r="P53" s="23"/>
       <c r="Q53" s="15"/>
-      <c r="R53" s="94"/>
+      <c r="R53" s="60"/>
       <c r="S53" s="3"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
@@ -2479,30 +2493,30 @@
       <c r="AP53" s="7"/>
     </row>
     <row r="54" spans="1:42" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="87" t="s">
+      <c r="A54" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="88"/>
-      <c r="C54" s="89" t="s">
+      <c r="B54" s="59"/>
+      <c r="C54" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="90"/>
-      <c r="E54" s="92" t="s">
+      <c r="D54" s="95"/>
+      <c r="E54" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="91"/>
-      <c r="G54" s="91"/>
-      <c r="H54" s="91"/>
-      <c r="I54" s="91"/>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="91"/>
-      <c r="M54" s="91"/>
-      <c r="N54" s="91"/>
-      <c r="O54" s="91"/>
-      <c r="P54" s="91"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="92"/>
+      <c r="K54" s="92"/>
+      <c r="L54" s="92"/>
+      <c r="M54" s="92"/>
+      <c r="N54" s="92"/>
+      <c r="O54" s="92"/>
+      <c r="P54" s="92"/>
       <c r="Q54" s="93"/>
-      <c r="R54" s="95" t="s">
+      <c r="R54" s="61" t="s">
         <v>5</v>
       </c>
       <c r="S54" s="3"/>
@@ -2510,28 +2524,28 @@
       <c r="U54" s="2"/>
     </row>
     <row r="55" spans="1:42" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="69" t="s">
+      <c r="B55" s="96"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="61"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="61"/>
-      <c r="O55" s="61"/>
-      <c r="P55" s="61"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="38" t="s">
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="34" t="s">
         <v>5</v>
       </c>
       <c r="S55" s="3"/>
@@ -2539,11 +2553,11 @@
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="85" t="s">
+      <c r="A56" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="86"/>
-      <c r="C56" s="71" t="s">
+      <c r="B56" s="57"/>
+      <c r="C56" s="44" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="20"/>
@@ -2570,13 +2584,13 @@
       <c r="U56" s="2"/>
     </row>
     <row r="57" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="79"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="71" t="s">
+      <c r="A57" s="50"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="44" t="s">
         <v>3</v>
       </c>
       <c r="D57" s="20"/>
-      <c r="E57" s="71" t="s">
+      <c r="E57" s="44" t="s">
         <v>24</v>
       </c>
       <c r="F57" s="19"/>
@@ -2599,13 +2613,13 @@
       <c r="U57" s="2"/>
     </row>
     <row r="58" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="79"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="71" t="s">
+      <c r="A58" s="50"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="20"/>
-      <c r="E58" s="71" t="s">
+      <c r="E58" s="44" t="s">
         <v>25</v>
       </c>
       <c r="F58" s="19"/>
@@ -2628,13 +2642,13 @@
       <c r="U58" s="2"/>
     </row>
     <row r="59" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="79"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="71" t="s">
+      <c r="A59" s="50"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="44" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="20"/>
-      <c r="E59" s="71" t="s">
+      <c r="E59" s="44" t="s">
         <v>26</v>
       </c>
       <c r="F59" s="19"/>
@@ -2657,13 +2671,13 @@
       <c r="U59" s="2"/>
     </row>
     <row r="60" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="79"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="71" t="s">
+      <c r="A60" s="50"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="44" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="20"/>
-      <c r="E60" s="71" t="s">
+      <c r="E60" s="44" t="s">
         <v>27</v>
       </c>
       <c r="F60" s="19"/>
@@ -2686,58 +2700,58 @@
       <c r="U60" s="2"/>
     </row>
     <row r="61" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="101"/>
-      <c r="B61" s="102"/>
-      <c r="C61" s="81" t="s">
+      <c r="A61" s="64"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="52" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="27"/>
-      <c r="E61" s="82" t="s">
+      <c r="E61" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
-      <c r="P61" s="83"/>
-      <c r="Q61" s="84"/>
-      <c r="R61" s="96" t="s">
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="55"/>
+      <c r="R61" s="62" t="s">
         <v>21</v>
       </c>
       <c r="T61" s="2"/>
       <c r="V61" s="3"/>
     </row>
     <row r="62" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="77" t="s">
+      <c r="A62" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="97"/>
-      <c r="C62" s="72" t="s">
+      <c r="B62" s="63"/>
+      <c r="C62" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="73"/>
-      <c r="E62" s="98" t="s">
+      <c r="D62" s="75"/>
+      <c r="E62" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="99"/>
-      <c r="J62" s="99"/>
-      <c r="K62" s="99"/>
-      <c r="L62" s="99"/>
-      <c r="M62" s="99"/>
-      <c r="N62" s="99"/>
-      <c r="O62" s="99"/>
-      <c r="P62" s="99"/>
-      <c r="Q62" s="100"/>
-      <c r="R62" s="96" t="s">
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="77"/>
+      <c r="N62" s="77"/>
+      <c r="O62" s="77"/>
+      <c r="P62" s="77"/>
+      <c r="Q62" s="78"/>
+      <c r="R62" s="62" t="s">
         <v>5</v>
       </c>
       <c r="T62" s="2"/>
@@ -2776,50 +2790,50 @@
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="49" t="s">
+      <c r="A71" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="51"/>
-      <c r="N71" s="55" t="s">
+      <c r="B71" s="99"/>
+      <c r="C71" s="99"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99"/>
+      <c r="H71" s="99"/>
+      <c r="I71" s="99"/>
+      <c r="J71" s="99"/>
+      <c r="K71" s="99"/>
+      <c r="L71" s="99"/>
+      <c r="M71" s="100"/>
+      <c r="N71" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="O71" s="55"/>
-      <c r="P71" s="55"/>
-      <c r="Q71" s="55"/>
+      <c r="O71" s="104"/>
+      <c r="P71" s="104"/>
+      <c r="Q71" s="104"/>
       <c r="T71" s="1"/>
       <c r="U71" s="23"/>
     </row>
     <row r="72" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="52"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="53"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="56">
+      <c r="A72" s="101"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="102"/>
+      <c r="D72" s="102"/>
+      <c r="E72" s="102"/>
+      <c r="F72" s="102"/>
+      <c r="G72" s="102"/>
+      <c r="H72" s="102"/>
+      <c r="I72" s="102"/>
+      <c r="J72" s="102"/>
+      <c r="K72" s="102"/>
+      <c r="L72" s="102"/>
+      <c r="M72" s="103"/>
+      <c r="N72" s="105">
         <v>44743</v>
       </c>
-      <c r="O72" s="56"/>
-      <c r="P72" s="56"/>
-      <c r="Q72" s="56"/>
+      <c r="O72" s="105"/>
+      <c r="P72" s="105"/>
+      <c r="Q72" s="105"/>
       <c r="T72" s="1"/>
       <c r="U72" s="23"/>
     </row>
@@ -2845,26 +2859,26 @@
       <c r="U73" s="23"/>
     </row>
     <row r="74" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="63" t="s">
+      <c r="A74" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="B74" s="64"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="64"/>
-      <c r="J74" s="64"/>
-      <c r="K74" s="64"/>
-      <c r="L74" s="64"/>
-      <c r="M74" s="64"/>
-      <c r="N74" s="64"/>
-      <c r="O74" s="64"/>
-      <c r="P74" s="64"/>
-      <c r="Q74" s="65"/>
-      <c r="R74" s="43" t="s">
+      <c r="B74" s="107"/>
+      <c r="C74" s="107"/>
+      <c r="D74" s="107"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="107"/>
+      <c r="G74" s="107"/>
+      <c r="H74" s="107"/>
+      <c r="I74" s="107"/>
+      <c r="J74" s="107"/>
+      <c r="K74" s="107"/>
+      <c r="L74" s="107"/>
+      <c r="M74" s="107"/>
+      <c r="N74" s="107"/>
+      <c r="O74" s="107"/>
+      <c r="P74" s="107"/>
+      <c r="Q74" s="108"/>
+      <c r="R74" s="112" t="s">
         <v>1</v>
       </c>
       <c r="S74" s="23"/>
@@ -2872,51 +2886,51 @@
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="66"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="67"/>
-      <c r="L75" s="67"/>
-      <c r="M75" s="67"/>
-      <c r="N75" s="67"/>
-      <c r="O75" s="67"/>
-      <c r="P75" s="67"/>
-      <c r="Q75" s="68"/>
-      <c r="R75" s="44"/>
+      <c r="A75" s="109"/>
+      <c r="B75" s="110"/>
+      <c r="C75" s="110"/>
+      <c r="D75" s="110"/>
+      <c r="E75" s="110"/>
+      <c r="F75" s="110"/>
+      <c r="G75" s="110"/>
+      <c r="H75" s="110"/>
+      <c r="I75" s="110"/>
+      <c r="J75" s="110"/>
+      <c r="K75" s="110"/>
+      <c r="L75" s="110"/>
+      <c r="M75" s="110"/>
+      <c r="N75" s="110"/>
+      <c r="O75" s="110"/>
+      <c r="P75" s="110"/>
+      <c r="Q75" s="111"/>
+      <c r="R75" s="113"/>
       <c r="S75" s="23"/>
       <c r="T75" s="23"/>
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="57" t="s">
+      <c r="A76" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="109" t="s">
+      <c r="B76" s="115"/>
+      <c r="C76" s="115"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="34"/>
-      <c r="R76" s="37" t="s">
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="30"/>
+      <c r="R76" s="33" t="s">
         <v>5</v>
       </c>
       <c r="S76" s="23"/>
@@ -2924,14 +2938,14 @@
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="85" t="s">
+      <c r="A77" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="86"/>
-      <c r="C77" s="85" t="s">
+      <c r="B77" s="57"/>
+      <c r="C77" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="86"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="10" t="s">
         <v>40</v>
       </c>
@@ -2955,10 +2969,10 @@
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="79"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="101"/>
-      <c r="D78" s="102"/>
+      <c r="A78" s="50"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="65"/>
       <c r="E78" s="13" t="s">
         <v>41</v>
       </c>
@@ -2974,18 +2988,18 @@
       <c r="O78" s="13"/>
       <c r="P78" s="13"/>
       <c r="Q78" s="14"/>
-      <c r="R78" s="39"/>
+      <c r="R78" s="35"/>
       <c r="S78" s="23"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="79"/>
-      <c r="B79" s="80"/>
-      <c r="C79" s="85" t="s">
+      <c r="A79" s="50"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D79" s="86"/>
+      <c r="D79" s="57"/>
       <c r="E79" s="10" t="s">
         <v>42</v>
       </c>
@@ -3009,10 +3023,10 @@
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="79"/>
-      <c r="B80" s="80"/>
-      <c r="C80" s="101"/>
-      <c r="D80" s="102"/>
+      <c r="A80" s="50"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="65"/>
       <c r="E80" s="13" t="s">
         <v>43</v>
       </c>
@@ -3028,18 +3042,18 @@
       <c r="O80" s="13"/>
       <c r="P80" s="13"/>
       <c r="Q80" s="14"/>
-      <c r="R80" s="39"/>
+      <c r="R80" s="35"/>
       <c r="S80" s="23"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="79"/>
-      <c r="B81" s="80"/>
-      <c r="C81" s="85" t="s">
+      <c r="A81" s="50"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="86"/>
+      <c r="D81" s="57"/>
       <c r="E81" s="9" t="s">
         <v>44</v>
       </c>
@@ -3063,10 +3077,10 @@
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="79"/>
-      <c r="B82" s="80"/>
-      <c r="C82" s="79"/>
-      <c r="D82" s="80"/>
+      <c r="A82" s="50"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="51"/>
       <c r="E82" s="21" t="s">
         <v>45</v>
       </c>
@@ -3082,33 +3096,33 @@
       <c r="O82" s="13"/>
       <c r="P82" s="13"/>
       <c r="Q82" s="14"/>
-      <c r="R82" s="39"/>
+      <c r="R82" s="35"/>
       <c r="S82" s="23"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
     </row>
     <row r="83" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="79"/>
-      <c r="B83" s="80"/>
-      <c r="C83" s="85" t="s">
+      <c r="A83" s="50"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="86"/>
+      <c r="D83" s="57"/>
       <c r="E83" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F83" s="75"/>
-      <c r="G83" s="75"/>
-      <c r="H83" s="75"/>
-      <c r="I83" s="75"/>
-      <c r="J83" s="75"/>
-      <c r="K83" s="75"/>
-      <c r="L83" s="75"/>
-      <c r="M83" s="75"/>
-      <c r="N83" s="75"/>
-      <c r="O83" s="75"/>
-      <c r="P83" s="75"/>
-      <c r="Q83" s="76"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="46"/>
+      <c r="M83" s="46"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="46"/>
+      <c r="P83" s="46"/>
+      <c r="Q83" s="47"/>
       <c r="R83" s="18" t="s">
         <v>21</v>
       </c>
@@ -3117,37 +3131,37 @@
       <c r="U83" s="2"/>
     </row>
     <row r="84" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="79"/>
+      <c r="A84" s="50"/>
       <c r="B84" s="25"/>
-      <c r="C84" s="101"/>
-      <c r="D84" s="102"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="65"/>
       <c r="E84" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="106"/>
-      <c r="G84" s="106"/>
-      <c r="H84" s="106"/>
-      <c r="I84" s="106"/>
-      <c r="J84" s="106"/>
-      <c r="K84" s="106"/>
-      <c r="L84" s="106"/>
-      <c r="M84" s="106"/>
-      <c r="N84" s="106"/>
-      <c r="O84" s="106"/>
-      <c r="P84" s="106"/>
-      <c r="Q84" s="107"/>
-      <c r="R84" s="39"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="69"/>
+      <c r="I84" s="69"/>
+      <c r="J84" s="69"/>
+      <c r="K84" s="69"/>
+      <c r="L84" s="69"/>
+      <c r="M84" s="69"/>
+      <c r="N84" s="69"/>
+      <c r="O84" s="69"/>
+      <c r="P84" s="69"/>
+      <c r="Q84" s="70"/>
+      <c r="R84" s="35"/>
       <c r="S84" s="23"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="79"/>
+      <c r="A85" s="50"/>
       <c r="B85" s="25"/>
-      <c r="C85" s="85" t="s">
+      <c r="C85" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="86"/>
+      <c r="D85" s="57"/>
       <c r="E85" s="10" t="s">
         <v>48</v>
       </c>
@@ -3171,30 +3185,30 @@
       <c r="U85" s="2"/>
     </row>
     <row r="86" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="87" t="s">
+      <c r="A86" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="88"/>
-      <c r="C86" s="89" t="s">
+      <c r="B86" s="59"/>
+      <c r="C86" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D86" s="90"/>
-      <c r="E86" s="92" t="s">
+      <c r="D86" s="95"/>
+      <c r="E86" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F86" s="91"/>
-      <c r="G86" s="91"/>
-      <c r="H86" s="91"/>
-      <c r="I86" s="91"/>
-      <c r="J86" s="91"/>
-      <c r="K86" s="91"/>
-      <c r="L86" s="91"/>
-      <c r="M86" s="91"/>
-      <c r="N86" s="91"/>
-      <c r="O86" s="91"/>
-      <c r="P86" s="91"/>
+      <c r="F86" s="92"/>
+      <c r="G86" s="92"/>
+      <c r="H86" s="92"/>
+      <c r="I86" s="92"/>
+      <c r="J86" s="92"/>
+      <c r="K86" s="92"/>
+      <c r="L86" s="92"/>
+      <c r="M86" s="92"/>
+      <c r="N86" s="92"/>
+      <c r="O86" s="92"/>
+      <c r="P86" s="92"/>
       <c r="Q86" s="93"/>
-      <c r="R86" s="95" t="s">
+      <c r="R86" s="61" t="s">
         <v>5</v>
       </c>
       <c r="S86" s="23"/>
@@ -3202,28 +3216,28 @@
       <c r="U86" s="2"/>
     </row>
     <row r="87" spans="1:21" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="45" t="s">
+      <c r="A87" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="46"/>
-      <c r="E87" s="60" t="s">
+      <c r="B87" s="96"/>
+      <c r="C87" s="96"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="61"/>
-      <c r="J87" s="61"/>
-      <c r="K87" s="61"/>
-      <c r="L87" s="61"/>
-      <c r="M87" s="61"/>
-      <c r="N87" s="61"/>
-      <c r="O87" s="61"/>
-      <c r="P87" s="61"/>
-      <c r="Q87" s="62"/>
-      <c r="R87" s="38" t="s">
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="34" t="s">
         <v>5</v>
       </c>
       <c r="S87" s="23"/>
@@ -3231,11 +3245,11 @@
       <c r="U87" s="2"/>
     </row>
     <row r="88" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="85" t="s">
+      <c r="A88" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="86"/>
-      <c r="C88" s="71" t="s">
+      <c r="B88" s="57"/>
+      <c r="C88" s="44" t="s">
         <v>2</v>
       </c>
       <c r="D88" s="20"/>
@@ -3262,38 +3276,38 @@
       <c r="U88" s="2"/>
     </row>
     <row r="89" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="79"/>
-      <c r="B89" s="80"/>
-      <c r="C89" s="81"/>
+      <c r="A89" s="50"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="52"/>
       <c r="D89" s="27"/>
-      <c r="E89" s="36" t="s">
+      <c r="E89" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36"/>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="36"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="36"/>
-      <c r="P89" s="36"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="32"/>
+      <c r="L89" s="32"/>
+      <c r="M89" s="32"/>
+      <c r="N89" s="32"/>
+      <c r="O89" s="32"/>
+      <c r="P89" s="32"/>
       <c r="Q89" s="27"/>
-      <c r="R89" s="39"/>
+      <c r="R89" s="35"/>
       <c r="S89" s="23"/>
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
     </row>
     <row r="90" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="79"/>
-      <c r="B90" s="80"/>
-      <c r="C90" s="71" t="s">
+      <c r="A90" s="50"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="44" t="s">
         <v>3</v>
       </c>
       <c r="D90" s="20"/>
-      <c r="E90" s="71" t="s">
+      <c r="E90" s="44" t="s">
         <v>67</v>
       </c>
       <c r="F90" s="19"/>
@@ -3316,13 +3330,13 @@
       <c r="U90" s="2"/>
     </row>
     <row r="91" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="79"/>
-      <c r="B91" s="80"/>
-      <c r="C91" s="71" t="s">
+      <c r="A91" s="50"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D91" s="20"/>
-      <c r="E91" s="71" t="s">
+      <c r="E91" s="44" t="s">
         <v>51</v>
       </c>
       <c r="F91" s="19"/>
@@ -3337,7 +3351,7 @@
       <c r="O91" s="19"/>
       <c r="P91" s="19"/>
       <c r="Q91" s="20"/>
-      <c r="R91" s="110" t="s">
+      <c r="R91" s="73" t="s">
         <v>53</v>
       </c>
       <c r="S91" s="23" t="s">
@@ -3347,116 +3361,116 @@
       <c r="U91" s="2"/>
     </row>
     <row r="92" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="79"/>
-      <c r="B92" s="80"/>
-      <c r="C92" s="81"/>
+      <c r="A92" s="50"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="52"/>
       <c r="D92" s="27"/>
-      <c r="E92" s="81" t="s">
+      <c r="E92" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="36"/>
-      <c r="P92" s="36"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="32"/>
+      <c r="P92" s="32"/>
       <c r="Q92" s="27"/>
-      <c r="R92" s="39"/>
+      <c r="R92" s="35"/>
       <c r="S92" s="23"/>
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
     </row>
     <row r="93" spans="1:21" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="77" t="s">
+      <c r="A93" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B93" s="97"/>
-      <c r="C93" s="72" t="s">
+      <c r="B93" s="63"/>
+      <c r="C93" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="73"/>
-      <c r="E93" s="98" t="s">
+      <c r="D93" s="75"/>
+      <c r="E93" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F93" s="99"/>
-      <c r="G93" s="99"/>
-      <c r="H93" s="99"/>
-      <c r="I93" s="99"/>
-      <c r="J93" s="99"/>
-      <c r="K93" s="99"/>
-      <c r="L93" s="99"/>
-      <c r="M93" s="99"/>
-      <c r="N93" s="99"/>
-      <c r="O93" s="99"/>
-      <c r="P93" s="99"/>
-      <c r="Q93" s="100"/>
-      <c r="R93" s="96" t="s">
+      <c r="F93" s="77"/>
+      <c r="G93" s="77"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="77"/>
+      <c r="J93" s="77"/>
+      <c r="K93" s="77"/>
+      <c r="L93" s="77"/>
+      <c r="M93" s="77"/>
+      <c r="N93" s="77"/>
+      <c r="O93" s="77"/>
+      <c r="P93" s="77"/>
+      <c r="Q93" s="78"/>
+      <c r="R93" s="62" t="s">
         <v>5</v>
       </c>
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
     </row>
     <row r="94" spans="1:21" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="111" t="s">
+      <c r="A94" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="111"/>
-      <c r="C94" s="111"/>
-      <c r="D94" s="112"/>
-      <c r="E94" s="115" t="s">
+      <c r="B94" s="79"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="80"/>
+      <c r="E94" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="F94" s="116"/>
-      <c r="G94" s="116"/>
-      <c r="H94" s="116"/>
-      <c r="I94" s="116"/>
-      <c r="J94" s="116"/>
-      <c r="K94" s="116"/>
-      <c r="L94" s="116"/>
-      <c r="M94" s="116"/>
-      <c r="N94" s="116"/>
-      <c r="O94" s="116"/>
-      <c r="P94" s="116"/>
-      <c r="Q94" s="117"/>
-      <c r="R94" s="47" t="s">
+      <c r="F94" s="84"/>
+      <c r="G94" s="84"/>
+      <c r="H94" s="84"/>
+      <c r="I94" s="84"/>
+      <c r="J94" s="84"/>
+      <c r="K94" s="84"/>
+      <c r="L94" s="84"/>
+      <c r="M94" s="84"/>
+      <c r="N94" s="84"/>
+      <c r="O94" s="84"/>
+      <c r="P94" s="84"/>
+      <c r="Q94" s="85"/>
+      <c r="R94" s="89" t="s">
         <v>5</v>
       </c>
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
     </row>
     <row r="95" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="113"/>
-      <c r="B95" s="113"/>
-      <c r="C95" s="113"/>
-      <c r="D95" s="114"/>
-      <c r="E95" s="118"/>
-      <c r="F95" s="119"/>
-      <c r="G95" s="119"/>
-      <c r="H95" s="119"/>
-      <c r="I95" s="119"/>
-      <c r="J95" s="119"/>
-      <c r="K95" s="119"/>
-      <c r="L95" s="119"/>
-      <c r="M95" s="119"/>
-      <c r="N95" s="119"/>
-      <c r="O95" s="119"/>
-      <c r="P95" s="119"/>
-      <c r="Q95" s="120"/>
-      <c r="R95" s="48"/>
+      <c r="A95" s="81"/>
+      <c r="B95" s="81"/>
+      <c r="C95" s="81"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="86"/>
+      <c r="F95" s="87"/>
+      <c r="G95" s="87"/>
+      <c r="H95" s="87"/>
+      <c r="I95" s="87"/>
+      <c r="J95" s="87"/>
+      <c r="K95" s="87"/>
+      <c r="L95" s="87"/>
+      <c r="M95" s="87"/>
+      <c r="N95" s="87"/>
+      <c r="O95" s="87"/>
+      <c r="P95" s="87"/>
+      <c r="Q95" s="88"/>
+      <c r="R95" s="90"/>
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
     </row>
     <row r="96" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="85" t="s">
+      <c r="A96" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="86"/>
-      <c r="C96" s="71" t="s">
+      <c r="B96" s="57"/>
+      <c r="C96" s="44" t="s">
         <v>2</v>
       </c>
       <c r="D96" s="20"/>
@@ -3482,37 +3496,37 @@
       <c r="U96" s="2"/>
     </row>
     <row r="97" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="79"/>
-      <c r="B97" s="80"/>
-      <c r="C97" s="81"/>
+      <c r="A97" s="50"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="52"/>
       <c r="D97" s="27"/>
-      <c r="E97" s="36" t="s">
+      <c r="E97" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="36"/>
-      <c r="N97" s="36"/>
-      <c r="O97" s="36"/>
-      <c r="P97" s="36"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="32"/>
+      <c r="L97" s="32"/>
+      <c r="M97" s="32"/>
+      <c r="N97" s="32"/>
+      <c r="O97" s="32"/>
+      <c r="P97" s="32"/>
       <c r="Q97" s="27"/>
-      <c r="R97" s="39"/>
+      <c r="R97" s="35"/>
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
     </row>
     <row r="98" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="79"/>
-      <c r="B98" s="80"/>
-      <c r="C98" s="71" t="s">
+      <c r="A98" s="50"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="44" t="s">
         <v>3</v>
       </c>
       <c r="D98" s="20"/>
-      <c r="E98" s="71" t="s">
+      <c r="E98" s="44" t="s">
         <v>61</v>
       </c>
       <c r="F98" s="19"/>
@@ -3534,11 +3548,11 @@
       <c r="U98" s="2"/>
     </row>
     <row r="99" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="79"/>
-      <c r="B99" s="80"/>
-      <c r="C99" s="70"/>
+      <c r="A99" s="50"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="43"/>
       <c r="D99" s="17"/>
-      <c r="E99" s="70" t="s">
+      <c r="E99" s="43" t="s">
         <v>62</v>
       </c>
       <c r="F99" s="16"/>
@@ -3553,42 +3567,42 @@
       <c r="O99" s="16"/>
       <c r="P99" s="16"/>
       <c r="Q99" s="17"/>
-      <c r="R99" s="94"/>
+      <c r="R99" s="60"/>
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
     </row>
     <row r="100" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="79"/>
-      <c r="B100" s="80"/>
-      <c r="C100" s="81"/>
+      <c r="A100" s="50"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="52"/>
       <c r="D100" s="27"/>
-      <c r="E100" s="81" t="s">
+      <c r="E100" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-      <c r="L100" s="36"/>
-      <c r="M100" s="36"/>
-      <c r="N100" s="36"/>
-      <c r="O100" s="36"/>
-      <c r="P100" s="36"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="32"/>
+      <c r="L100" s="32"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="32"/>
+      <c r="O100" s="32"/>
+      <c r="P100" s="32"/>
       <c r="Q100" s="27"/>
-      <c r="R100" s="39"/>
+      <c r="R100" s="35"/>
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
     </row>
     <row r="101" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="79"/>
-      <c r="B101" s="80"/>
-      <c r="C101" s="71" t="s">
+      <c r="A101" s="50"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D101" s="20"/>
-      <c r="E101" s="71" t="s">
+      <c r="E101" s="44" t="s">
         <v>58</v>
       </c>
       <c r="F101" s="19"/>
@@ -3610,37 +3624,37 @@
       <c r="U101" s="2"/>
     </row>
     <row r="102" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="79"/>
-      <c r="B102" s="80"/>
-      <c r="C102" s="81"/>
+      <c r="A102" s="50"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="52"/>
       <c r="D102" s="27"/>
-      <c r="E102" s="81" t="s">
+      <c r="E102" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
-      <c r="L102" s="36"/>
-      <c r="M102" s="36"/>
-      <c r="N102" s="36"/>
-      <c r="O102" s="36"/>
-      <c r="P102" s="36"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="32"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="32"/>
+      <c r="P102" s="32"/>
       <c r="Q102" s="27"/>
-      <c r="R102" s="39"/>
+      <c r="R102" s="35"/>
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
     </row>
     <row r="103" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="79"/>
-      <c r="B103" s="80"/>
-      <c r="C103" s="71" t="s">
+      <c r="A103" s="50"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="44" t="s">
         <v>7</v>
       </c>
       <c r="D103" s="20"/>
-      <c r="E103" s="71" t="s">
+      <c r="E103" s="44" t="s">
         <v>63</v>
       </c>
       <c r="F103" s="19"/>
@@ -3662,171 +3676,374 @@
       <c r="U103" s="2"/>
     </row>
     <row r="104" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="79"/>
-      <c r="B104" s="80"/>
-      <c r="C104" s="81"/>
+      <c r="A104" s="50"/>
+      <c r="B104" s="51"/>
+      <c r="C104" s="52"/>
       <c r="D104" s="27"/>
-      <c r="E104" s="81" t="s">
+      <c r="E104" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="F104" s="36"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
-      <c r="L104" s="36"/>
-      <c r="M104" s="36"/>
-      <c r="N104" s="36"/>
-      <c r="O104" s="36"/>
-      <c r="P104" s="36"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="32"/>
+      <c r="N104" s="32"/>
+      <c r="O104" s="32"/>
+      <c r="P104" s="32"/>
       <c r="Q104" s="27"/>
-      <c r="R104" s="39"/>
+      <c r="R104" s="35"/>
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
     </row>
     <row r="105" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="77" t="s">
+      <c r="A105" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B105" s="97"/>
-      <c r="C105" s="72" t="s">
+      <c r="B105" s="63"/>
+      <c r="C105" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D105" s="73"/>
-      <c r="E105" s="98" t="s">
+      <c r="D105" s="75"/>
+      <c r="E105" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F105" s="99"/>
-      <c r="G105" s="99"/>
-      <c r="H105" s="99"/>
-      <c r="I105" s="99"/>
-      <c r="J105" s="99"/>
-      <c r="K105" s="99"/>
-      <c r="L105" s="99"/>
-      <c r="M105" s="99"/>
-      <c r="N105" s="99"/>
-      <c r="O105" s="99"/>
-      <c r="P105" s="99"/>
-      <c r="Q105" s="100"/>
-      <c r="R105" s="96" t="s">
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="77"/>
+      <c r="J105" s="77"/>
+      <c r="K105" s="77"/>
+      <c r="L105" s="77"/>
+      <c r="M105" s="77"/>
+      <c r="N105" s="77"/>
+      <c r="O105" s="77"/>
+      <c r="P105" s="77"/>
+      <c r="Q105" s="78"/>
+      <c r="R105" s="62" t="s">
         <v>5</v>
       </c>
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
     </row>
     <row r="106" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="B106" s="99"/>
+      <c r="C106" s="99"/>
+      <c r="D106" s="99"/>
+      <c r="E106" s="99"/>
+      <c r="F106" s="99"/>
+      <c r="G106" s="99"/>
+      <c r="H106" s="99"/>
+      <c r="I106" s="99"/>
+      <c r="J106" s="99"/>
+      <c r="K106" s="99"/>
+      <c r="L106" s="99"/>
+      <c r="M106" s="100"/>
+      <c r="N106" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="O106" s="104"/>
+      <c r="P106" s="104"/>
+      <c r="Q106" s="104"/>
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
     </row>
     <row r="107" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="101"/>
+      <c r="B107" s="102"/>
+      <c r="C107" s="102"/>
+      <c r="D107" s="102"/>
+      <c r="E107" s="102"/>
+      <c r="F107" s="102"/>
+      <c r="G107" s="102"/>
+      <c r="H107" s="102"/>
+      <c r="I107" s="102"/>
+      <c r="J107" s="102"/>
+      <c r="K107" s="102"/>
+      <c r="L107" s="102"/>
+      <c r="M107" s="103"/>
+      <c r="N107" s="105">
+        <v>44747</v>
+      </c>
+      <c r="O107" s="105"/>
+      <c r="P107" s="105"/>
+      <c r="Q107" s="105"/>
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
     </row>
     <row r="108" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
     </row>
     <row r="109" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="106" t="s">
+        <v>19</v>
+      </c>
+      <c r="B109" s="107"/>
+      <c r="C109" s="107"/>
+      <c r="D109" s="107"/>
+      <c r="E109" s="107"/>
+      <c r="F109" s="107"/>
+      <c r="G109" s="107"/>
+      <c r="H109" s="107"/>
+      <c r="I109" s="107"/>
+      <c r="J109" s="107"/>
+      <c r="K109" s="107"/>
+      <c r="L109" s="107"/>
+      <c r="M109" s="107"/>
+      <c r="N109" s="107"/>
+      <c r="O109" s="107"/>
+      <c r="P109" s="107"/>
+      <c r="Q109" s="108"/>
+      <c r="R109" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="S109" s="23"/>
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
     </row>
     <row r="110" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="109"/>
+      <c r="B110" s="110"/>
+      <c r="C110" s="110"/>
+      <c r="D110" s="110"/>
+      <c r="E110" s="110"/>
+      <c r="F110" s="110"/>
+      <c r="G110" s="110"/>
+      <c r="H110" s="110"/>
+      <c r="I110" s="110"/>
+      <c r="J110" s="110"/>
+      <c r="K110" s="110"/>
+      <c r="L110" s="110"/>
+      <c r="M110" s="110"/>
+      <c r="N110" s="110"/>
+      <c r="O110" s="110"/>
+      <c r="P110" s="110"/>
+      <c r="Q110" s="111"/>
+      <c r="R110" s="113"/>
+      <c r="S110" s="23"/>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
     </row>
     <row r="111" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="115"/>
+      <c r="C111" s="115"/>
+      <c r="D111" s="116"/>
+      <c r="E111" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="F111" s="31"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="31"/>
+      <c r="K111" s="31"/>
+      <c r="L111" s="31"/>
+      <c r="M111" s="31"/>
+      <c r="N111" s="31"/>
+      <c r="O111" s="31"/>
+      <c r="P111" s="31"/>
+      <c r="Q111" s="30"/>
+      <c r="R111" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="S111" s="23"/>
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
     </row>
     <row r="112" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="57"/>
+      <c r="C112" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="57"/>
+      <c r="E112" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="10"/>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="11"/>
+      <c r="R112" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="S112" s="23"/>
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
     </row>
     <row r="113" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="50"/>
+      <c r="B113" s="51"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="13"/>
+      <c r="O113" s="13"/>
+      <c r="P113" s="13"/>
+      <c r="Q113" s="14"/>
+      <c r="R113" s="35"/>
+      <c r="S113" s="23"/>
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
     </row>
     <row r="114" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" s="63"/>
+      <c r="C114" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="75"/>
+      <c r="E114" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="77"/>
+      <c r="M114" s="77"/>
+      <c r="N114" s="77"/>
+      <c r="O114" s="77"/>
+      <c r="P114" s="77"/>
+      <c r="Q114" s="78"/>
+      <c r="R114" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="S114" s="23"/>
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
     </row>
     <row r="115" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="4"/>
+      <c r="B115" s="22"/>
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
     </row>
     <row r="116" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="4"/>
+      <c r="B116" s="23"/>
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
     </row>
     <row r="117" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="23"/>
+      <c r="A117" s="4"/>
       <c r="B117" s="23"/>
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
     </row>
     <row r="118" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="23"/>
+      <c r="A118" s="28"/>
       <c r="B118" s="22"/>
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
     </row>
     <row r="119" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="23"/>
+      <c r="A119" s="28"/>
       <c r="B119" s="22"/>
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
     </row>
     <row r="120" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="23"/>
+      <c r="A120" s="28"/>
       <c r="B120" s="22"/>
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
     </row>
     <row r="121" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="23"/>
+      <c r="A121" s="28"/>
       <c r="B121" s="22"/>
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
     </row>
     <row r="122" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="23"/>
+      <c r="A122" s="28"/>
       <c r="B122" s="22"/>
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
     </row>
     <row r="123" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+      <c r="A123" s="28"/>
+      <c r="B123" s="22"/>
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
     </row>
     <row r="124" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="A124" s="4"/>
+      <c r="B124" s="22"/>
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
     </row>
     <row r="125" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+      <c r="A125" s="4"/>
+      <c r="B125" s="22"/>
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
     </row>
     <row r="126" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="30"/>
-      <c r="B126" s="31"/>
+      <c r="A126" s="4"/>
+      <c r="B126" s="22"/>
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
     </row>
     <row r="127" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="32"/>
-      <c r="B127" s="33"/>
+      <c r="A127" s="4"/>
+      <c r="B127" s="22"/>
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
     </row>
     <row r="128" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="28"/>
+      <c r="A128" s="4"/>
       <c r="B128" s="22"/>
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
@@ -3875,13 +4092,13 @@
     </row>
     <row r="136" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
-      <c r="B136" s="22"/>
+      <c r="B136" s="23"/>
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
     </row>
     <row r="137" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
-      <c r="B137" s="22"/>
+      <c r="B137" s="23"/>
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
     </row>
@@ -3893,7 +4110,7 @@
     </row>
     <row r="139" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
-      <c r="B139" s="23"/>
+      <c r="B139" s="22"/>
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
     </row>
@@ -3911,48 +4128,48 @@
     </row>
     <row r="142" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
-      <c r="B142" s="23"/>
+      <c r="B142" s="22"/>
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
     </row>
     <row r="143" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
-      <c r="B143" s="23"/>
+      <c r="B143" s="22"/>
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
     </row>
     <row r="144" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="28"/>
-      <c r="B144" s="22"/>
+      <c r="A144" s="4"/>
+      <c r="B144" s="29"/>
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
     </row>
     <row r="145" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="28"/>
-      <c r="B145" s="22"/>
+      <c r="A145" s="4"/>
+      <c r="B145" s="29"/>
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
     </row>
     <row r="146" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="28"/>
-      <c r="B146" s="22"/>
+      <c r="A146" s="4"/>
+      <c r="B146" s="23"/>
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
     </row>
     <row r="147" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="28"/>
+      <c r="A147" s="4"/>
       <c r="B147" s="22"/>
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
     </row>
     <row r="148" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="28"/>
+      <c r="A148" s="4"/>
       <c r="B148" s="22"/>
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
     </row>
     <row r="149" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="28"/>
+      <c r="A149" s="4"/>
       <c r="B149" s="22"/>
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
@@ -4097,7 +4314,7 @@
     </row>
     <row r="173" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
-      <c r="B173" s="22"/>
+      <c r="B173" s="23"/>
       <c r="T173" s="2"/>
       <c r="U173" s="2"/>
     </row>
@@ -4187,13 +4404,13 @@
     </row>
     <row r="188" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
-      <c r="B188" s="23"/>
+      <c r="B188" s="22"/>
       <c r="T188" s="2"/>
       <c r="U188" s="2"/>
     </row>
     <row r="189" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
-      <c r="B189" s="23"/>
+      <c r="B189" s="22"/>
       <c r="T189" s="2"/>
       <c r="U189" s="2"/>
     </row>
@@ -4234,410 +4451,852 @@
       <c r="U195" s="2"/>
     </row>
     <row r="196" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A196" s="4"/>
-      <c r="B196" s="29"/>
-      <c r="T196" s="2"/>
+      <c r="A196" s="26"/>
+      <c r="B196" s="24"/>
+      <c r="C196" s="24"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="24"/>
+      <c r="F196" s="23"/>
+      <c r="G196" s="23"/>
+      <c r="H196" s="23"/>
+      <c r="I196" s="23"/>
+      <c r="J196" s="23"/>
+      <c r="K196" s="23"/>
+      <c r="L196" s="23"/>
+      <c r="M196" s="23"/>
+      <c r="N196" s="23"/>
+      <c r="O196" s="23"/>
+      <c r="P196" s="23"/>
+      <c r="Q196" s="23"/>
+      <c r="R196" s="23"/>
+      <c r="S196" s="23"/>
+      <c r="T196" s="22"/>
       <c r="U196" s="2"/>
     </row>
     <row r="197" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="4"/>
-      <c r="B197" s="29"/>
-      <c r="T197" s="2"/>
+      <c r="A197" s="26"/>
+      <c r="B197" s="24"/>
+      <c r="C197" s="24"/>
+      <c r="D197" s="24"/>
+      <c r="E197" s="24"/>
+      <c r="F197" s="23"/>
+      <c r="G197" s="23"/>
+      <c r="H197" s="23"/>
+      <c r="I197" s="23"/>
+      <c r="J197" s="23"/>
+      <c r="K197" s="23"/>
+      <c r="L197" s="23"/>
+      <c r="M197" s="23"/>
+      <c r="N197" s="23"/>
+      <c r="O197" s="23"/>
+      <c r="P197" s="23"/>
+      <c r="Q197" s="23"/>
+      <c r="R197" s="23"/>
+      <c r="S197" s="23"/>
+      <c r="T197" s="22"/>
       <c r="U197" s="2"/>
     </row>
     <row r="198" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="4"/>
-      <c r="B198" s="23"/>
-      <c r="T198" s="2"/>
+      <c r="S198" s="8"/>
+      <c r="T198" s="3"/>
       <c r="U198" s="2"/>
     </row>
     <row r="199" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="4"/>
-      <c r="B199" s="23"/>
-      <c r="T199" s="2"/>
+      <c r="S199" s="8"/>
+      <c r="T199" s="3"/>
       <c r="U199" s="2"/>
     </row>
     <row r="200" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="4"/>
-      <c r="B200" s="22"/>
-      <c r="T200" s="2"/>
+      <c r="S200" s="8"/>
+      <c r="T200" s="3"/>
       <c r="U200" s="2"/>
     </row>
     <row r="201" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="4"/>
-      <c r="B201" s="22"/>
-      <c r="T201" s="2"/>
+      <c r="S201" s="8"/>
+      <c r="T201" s="3"/>
       <c r="U201" s="2"/>
     </row>
     <row r="202" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="4"/>
-      <c r="B202" s="22"/>
-      <c r="T202" s="2"/>
+      <c r="S202" s="8"/>
+      <c r="T202" s="3"/>
       <c r="U202" s="2"/>
     </row>
     <row r="203" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="4"/>
-      <c r="B203" s="22"/>
-      <c r="T203" s="2"/>
+      <c r="S203" s="8"/>
+      <c r="T203" s="3"/>
       <c r="U203" s="2"/>
     </row>
     <row r="204" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="4"/>
-      <c r="B204" s="22"/>
-      <c r="T204" s="2"/>
+      <c r="S204" s="8"/>
+      <c r="T204" s="3"/>
       <c r="U204" s="2"/>
     </row>
     <row r="205" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="4"/>
-      <c r="B205" s="22"/>
-      <c r="T205" s="2"/>
+      <c r="S205" s="22"/>
+      <c r="T205" s="23"/>
       <c r="U205" s="2"/>
     </row>
     <row r="206" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="4"/>
-      <c r="B206" s="22"/>
-      <c r="T206" s="2"/>
+      <c r="S206" s="22"/>
+      <c r="T206" s="23"/>
       <c r="U206" s="2"/>
     </row>
     <row r="207" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="4"/>
-      <c r="B207" s="22"/>
-      <c r="T207" s="2"/>
+      <c r="S207" s="22"/>
+      <c r="T207" s="23"/>
       <c r="U207" s="2"/>
     </row>
     <row r="208" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="4"/>
-      <c r="B208" s="22"/>
-      <c r="T208" s="2"/>
+      <c r="S208" s="22"/>
+      <c r="T208" s="23"/>
       <c r="U208" s="2"/>
     </row>
-    <row r="209" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="4"/>
-      <c r="B209" s="22"/>
-      <c r="T209" s="2"/>
+    <row r="209" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S209" s="22"/>
+      <c r="T209" s="23"/>
       <c r="U209" s="2"/>
     </row>
-    <row r="210" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="4"/>
-      <c r="B210" s="22"/>
-      <c r="T210" s="2"/>
+    <row r="210" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S210" s="22"/>
+      <c r="T210" s="23"/>
       <c r="U210" s="2"/>
     </row>
-    <row r="211" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="4"/>
-      <c r="B211" s="22"/>
-      <c r="T211" s="2"/>
+    <row r="211" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S211" s="22"/>
+      <c r="T211" s="23"/>
       <c r="U211" s="2"/>
     </row>
-    <row r="212" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A212" s="4"/>
-      <c r="B212" s="22"/>
-      <c r="T212" s="2"/>
+    <row r="212" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S212" s="22"/>
+      <c r="T212" s="23"/>
       <c r="U212" s="2"/>
     </row>
-    <row r="213" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="4"/>
-      <c r="B213" s="22"/>
-      <c r="T213" s="2"/>
+    <row r="213" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S213" s="22"/>
+      <c r="T213" s="23"/>
       <c r="U213" s="2"/>
     </row>
-    <row r="214" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A214" s="4"/>
-      <c r="B214" s="22"/>
-      <c r="T214" s="2"/>
+    <row r="214" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S214" s="22"/>
+      <c r="T214" s="23"/>
       <c r="U214" s="2"/>
     </row>
-    <row r="215" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A215" s="4"/>
-      <c r="B215" s="22"/>
-      <c r="T215" s="2"/>
+    <row r="215" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S215" s="22"/>
+      <c r="T215" s="23"/>
       <c r="U215" s="2"/>
     </row>
-    <row r="216" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="4"/>
-      <c r="B216" s="22"/>
-      <c r="T216" s="2"/>
+    <row r="216" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S216" s="22"/>
+      <c r="T216" s="23"/>
       <c r="U216" s="2"/>
     </row>
-    <row r="217" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="4"/>
-      <c r="B217" s="22"/>
-      <c r="T217" s="2"/>
+    <row r="217" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S217" s="22"/>
+      <c r="T217" s="23"/>
       <c r="U217" s="2"/>
     </row>
-    <row r="218" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="4"/>
-      <c r="B218" s="22"/>
-      <c r="T218" s="2"/>
+    <row r="218" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S218" s="22"/>
+      <c r="T218" s="23"/>
       <c r="U218" s="2"/>
     </row>
-    <row r="219" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="4"/>
-      <c r="B219" s="22"/>
-      <c r="T219" s="2"/>
+    <row r="219" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S219" s="22"/>
+      <c r="T219" s="23"/>
       <c r="U219" s="2"/>
     </row>
-    <row r="220" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="4"/>
-      <c r="B220" s="22"/>
-      <c r="T220" s="2"/>
+    <row r="220" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S220" s="22"/>
+      <c r="T220" s="23"/>
       <c r="U220" s="2"/>
     </row>
-    <row r="221" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A221" s="4"/>
-      <c r="B221" s="22"/>
-      <c r="T221" s="2"/>
+    <row r="221" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S221" s="22"/>
+      <c r="T221" s="23"/>
       <c r="U221" s="2"/>
     </row>
-    <row r="222" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="26"/>
-      <c r="B222" s="24"/>
-      <c r="C222" s="24"/>
-      <c r="D222" s="24"/>
-      <c r="E222" s="24"/>
-      <c r="F222" s="23"/>
-      <c r="G222" s="23"/>
-      <c r="H222" s="23"/>
-      <c r="I222" s="23"/>
-      <c r="J222" s="23"/>
-      <c r="K222" s="23"/>
-      <c r="L222" s="23"/>
-      <c r="M222" s="23"/>
-      <c r="N222" s="23"/>
-      <c r="O222" s="23"/>
-      <c r="P222" s="23"/>
-      <c r="Q222" s="23"/>
-      <c r="R222" s="23"/>
-      <c r="S222" s="23"/>
-      <c r="T222" s="22"/>
+    <row r="222" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S222" s="22"/>
+      <c r="T222" s="23"/>
       <c r="U222" s="2"/>
     </row>
-    <row r="223" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="26"/>
-      <c r="B223" s="24"/>
-      <c r="C223" s="24"/>
-      <c r="D223" s="24"/>
-      <c r="E223" s="24"/>
-      <c r="F223" s="23"/>
-      <c r="G223" s="23"/>
-      <c r="H223" s="23"/>
-      <c r="I223" s="23"/>
-      <c r="J223" s="23"/>
-      <c r="K223" s="23"/>
-      <c r="L223" s="23"/>
-      <c r="M223" s="23"/>
-      <c r="N223" s="23"/>
-      <c r="O223" s="23"/>
-      <c r="P223" s="23"/>
-      <c r="Q223" s="23"/>
-      <c r="R223" s="23"/>
-      <c r="S223" s="23"/>
-      <c r="T223" s="22"/>
+    <row r="223" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S223" s="22"/>
+      <c r="T223" s="23"/>
       <c r="U223" s="2"/>
     </row>
-    <row r="224" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S224" s="8"/>
-      <c r="T224" s="3"/>
+    <row r="224" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S224" s="22"/>
+      <c r="T224" s="23"/>
       <c r="U224" s="2"/>
     </row>
-    <row r="225" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S225" s="8"/>
-      <c r="T225" s="3"/>
+    <row r="225" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S225" s="22"/>
+      <c r="T225" s="23"/>
       <c r="U225" s="2"/>
     </row>
-    <row r="226" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S226" s="8"/>
-      <c r="T226" s="3"/>
+    <row r="226" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S226" s="22"/>
+      <c r="T226" s="23"/>
       <c r="U226" s="2"/>
     </row>
-    <row r="227" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S227" s="8"/>
-      <c r="T227" s="3"/>
+    <row r="227" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S227" s="22"/>
+      <c r="T227" s="23"/>
       <c r="U227" s="2"/>
     </row>
-    <row r="228" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S228" s="8"/>
-      <c r="T228" s="3"/>
+    <row r="228" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S228" s="22"/>
+      <c r="T228" s="23"/>
       <c r="U228" s="2"/>
     </row>
-    <row r="229" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S229" s="8"/>
-      <c r="T229" s="3"/>
+    <row r="229" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S229" s="22"/>
+      <c r="T229" s="23"/>
       <c r="U229" s="2"/>
     </row>
-    <row r="230" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S230" s="8"/>
-      <c r="T230" s="3"/>
+    <row r="230" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S230" s="22"/>
+      <c r="T230" s="23"/>
       <c r="U230" s="2"/>
     </row>
-    <row r="231" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S231" s="22"/>
       <c r="T231" s="23"/>
       <c r="U231" s="2"/>
     </row>
-    <row r="232" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S232" s="22"/>
       <c r="T232" s="23"/>
       <c r="U232" s="2"/>
     </row>
-    <row r="233" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S233" s="22"/>
       <c r="T233" s="23"/>
       <c r="U233" s="2"/>
     </row>
-    <row r="234" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S234" s="22"/>
       <c r="T234" s="23"/>
       <c r="U234" s="2"/>
     </row>
-    <row r="235" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S235" s="22"/>
       <c r="T235" s="23"/>
       <c r="U235" s="2"/>
     </row>
-    <row r="236" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S236" s="22"/>
       <c r="T236" s="23"/>
       <c r="U236" s="2"/>
     </row>
-    <row r="237" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S237" s="22"/>
       <c r="T237" s="23"/>
       <c r="U237" s="2"/>
     </row>
-    <row r="238" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="S238" s="22"/>
       <c r="T238" s="23"/>
       <c r="U238" s="2"/>
     </row>
-    <row r="239" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S239" s="22"/>
-      <c r="T239" s="23"/>
+    <row r="239" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A239" s="23"/>
+      <c r="B239" s="23"/>
+      <c r="C239" s="23"/>
+      <c r="D239" s="23"/>
+      <c r="E239" s="23"/>
+      <c r="F239" s="23"/>
+      <c r="G239" s="23"/>
+      <c r="H239" s="23"/>
+      <c r="I239" s="23"/>
+      <c r="J239" s="23"/>
+      <c r="K239" s="23"/>
+      <c r="L239" s="23"/>
+      <c r="M239" s="23"/>
+      <c r="N239" s="23"/>
+      <c r="O239" s="23"/>
+      <c r="P239" s="23"/>
+      <c r="Q239" s="23"/>
+      <c r="R239" s="23"/>
+      <c r="S239" s="8"/>
+      <c r="T239" s="3"/>
       <c r="U239" s="2"/>
     </row>
-    <row r="240" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S240" s="22"/>
-      <c r="T240" s="23"/>
+    <row r="240" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A240" s="23"/>
+      <c r="B240" s="23"/>
+      <c r="C240" s="23"/>
+      <c r="D240" s="23"/>
+      <c r="E240" s="23"/>
+      <c r="F240" s="23"/>
+      <c r="G240" s="23"/>
+      <c r="H240" s="23"/>
+      <c r="I240" s="23"/>
+      <c r="J240" s="23"/>
+      <c r="K240" s="23"/>
+      <c r="L240" s="23"/>
+      <c r="M240" s="23"/>
+      <c r="N240" s="23"/>
+      <c r="O240" s="23"/>
+      <c r="P240" s="23"/>
+      <c r="Q240" s="23"/>
+      <c r="R240" s="23"/>
+      <c r="S240" s="8"/>
+      <c r="T240" s="3"/>
       <c r="U240" s="2"/>
     </row>
-    <row r="241" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S241" s="22"/>
-      <c r="T241" s="23"/>
+    <row r="241" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A241" s="23"/>
+      <c r="B241" s="23"/>
+      <c r="C241" s="23"/>
+      <c r="D241" s="23"/>
+      <c r="E241" s="23"/>
+      <c r="F241" s="23"/>
+      <c r="G241" s="23"/>
+      <c r="H241" s="23"/>
+      <c r="I241" s="23"/>
+      <c r="J241" s="23"/>
+      <c r="K241" s="23"/>
+      <c r="L241" s="23"/>
+      <c r="M241" s="23"/>
+      <c r="N241" s="23"/>
+      <c r="O241" s="23"/>
+      <c r="P241" s="23"/>
+      <c r="Q241" s="23"/>
+      <c r="R241" s="23"/>
+      <c r="S241" s="8"/>
+      <c r="T241" s="3"/>
       <c r="U241" s="2"/>
     </row>
-    <row r="242" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S242" s="22"/>
-      <c r="T242" s="23"/>
+    <row r="242" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A242" s="23"/>
+      <c r="B242" s="23"/>
+      <c r="C242" s="23"/>
+      <c r="D242" s="23"/>
+      <c r="E242" s="23"/>
+      <c r="F242" s="23"/>
+      <c r="G242" s="23"/>
+      <c r="H242" s="23"/>
+      <c r="I242" s="23"/>
+      <c r="J242" s="23"/>
+      <c r="K242" s="23"/>
+      <c r="L242" s="23"/>
+      <c r="M242" s="23"/>
+      <c r="N242" s="23"/>
+      <c r="O242" s="23"/>
+      <c r="P242" s="23"/>
+      <c r="Q242" s="23"/>
+      <c r="R242" s="23"/>
+      <c r="S242" s="8"/>
+      <c r="T242" s="3"/>
       <c r="U242" s="2"/>
     </row>
-    <row r="243" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S243" s="22"/>
-      <c r="T243" s="23"/>
+    <row r="243" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A243" s="23"/>
+      <c r="B243" s="23"/>
+      <c r="C243" s="23"/>
+      <c r="D243" s="23"/>
+      <c r="E243" s="23"/>
+      <c r="F243" s="23"/>
+      <c r="G243" s="23"/>
+      <c r="H243" s="23"/>
+      <c r="I243" s="23"/>
+      <c r="J243" s="23"/>
+      <c r="K243" s="23"/>
+      <c r="L243" s="23"/>
+      <c r="M243" s="23"/>
+      <c r="N243" s="23"/>
+      <c r="O243" s="23"/>
+      <c r="P243" s="23"/>
+      <c r="Q243" s="23"/>
+      <c r="R243" s="23"/>
+      <c r="S243" s="8"/>
+      <c r="T243" s="3"/>
       <c r="U243" s="2"/>
     </row>
-    <row r="244" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S244" s="22"/>
-      <c r="T244" s="23"/>
+    <row r="244" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A244" s="23"/>
+      <c r="B244" s="23"/>
+      <c r="C244" s="23"/>
+      <c r="D244" s="23"/>
+      <c r="E244" s="23"/>
+      <c r="F244" s="23"/>
+      <c r="G244" s="23"/>
+      <c r="H244" s="23"/>
+      <c r="I244" s="23"/>
+      <c r="J244" s="23"/>
+      <c r="K244" s="23"/>
+      <c r="L244" s="23"/>
+      <c r="M244" s="23"/>
+      <c r="N244" s="23"/>
+      <c r="O244" s="23"/>
+      <c r="P244" s="23"/>
+      <c r="Q244" s="23"/>
+      <c r="R244" s="23"/>
+      <c r="S244" s="8"/>
+      <c r="T244" s="3"/>
       <c r="U244" s="2"/>
     </row>
-    <row r="245" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S245" s="22"/>
-      <c r="T245" s="23"/>
+    <row r="245" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A245" s="23"/>
+      <c r="B245" s="23"/>
+      <c r="C245" s="23"/>
+      <c r="D245" s="23"/>
+      <c r="E245" s="23"/>
+      <c r="F245" s="23"/>
+      <c r="G245" s="23"/>
+      <c r="H245" s="23"/>
+      <c r="I245" s="23"/>
+      <c r="J245" s="23"/>
+      <c r="K245" s="23"/>
+      <c r="L245" s="23"/>
+      <c r="M245" s="23"/>
+      <c r="N245" s="23"/>
+      <c r="O245" s="23"/>
+      <c r="P245" s="23"/>
+      <c r="Q245" s="23"/>
+      <c r="R245" s="23"/>
+      <c r="S245" s="8"/>
+      <c r="T245" s="3"/>
       <c r="U245" s="2"/>
     </row>
-    <row r="246" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S246" s="22"/>
-      <c r="T246" s="23"/>
+    <row r="246" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A246" s="23"/>
+      <c r="B246" s="23"/>
+      <c r="C246" s="23"/>
+      <c r="D246" s="23"/>
+      <c r="E246" s="23"/>
+      <c r="F246" s="23"/>
+      <c r="G246" s="23"/>
+      <c r="H246" s="23"/>
+      <c r="I246" s="23"/>
+      <c r="J246" s="23"/>
+      <c r="K246" s="23"/>
+      <c r="L246" s="23"/>
+      <c r="M246" s="23"/>
+      <c r="N246" s="23"/>
+      <c r="O246" s="23"/>
+      <c r="P246" s="23"/>
+      <c r="Q246" s="23"/>
+      <c r="R246" s="23"/>
+      <c r="S246" s="8"/>
+      <c r="T246" s="3"/>
       <c r="U246" s="2"/>
     </row>
-    <row r="247" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S247" s="22"/>
-      <c r="T247" s="23"/>
+    <row r="247" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A247" s="23"/>
+      <c r="B247" s="23"/>
+      <c r="C247" s="23"/>
+      <c r="D247" s="23"/>
+      <c r="E247" s="23"/>
+      <c r="F247" s="23"/>
+      <c r="G247" s="23"/>
+      <c r="H247" s="23"/>
+      <c r="I247" s="23"/>
+      <c r="J247" s="23"/>
+      <c r="K247" s="23"/>
+      <c r="L247" s="23"/>
+      <c r="M247" s="23"/>
+      <c r="N247" s="23"/>
+      <c r="O247" s="23"/>
+      <c r="P247" s="23"/>
+      <c r="Q247" s="23"/>
+      <c r="R247" s="23"/>
+      <c r="S247" s="8"/>
+      <c r="T247" s="3"/>
       <c r="U247" s="2"/>
     </row>
-    <row r="248" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S248" s="22"/>
-      <c r="T248" s="23"/>
+    <row r="248" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="23"/>
+      <c r="B248" s="23"/>
+      <c r="C248" s="23"/>
+      <c r="D248" s="23"/>
+      <c r="E248" s="23"/>
+      <c r="F248" s="23"/>
+      <c r="G248" s="23"/>
+      <c r="H248" s="23"/>
+      <c r="I248" s="23"/>
+      <c r="J248" s="23"/>
+      <c r="K248" s="23"/>
+      <c r="L248" s="23"/>
+      <c r="M248" s="23"/>
+      <c r="N248" s="23"/>
+      <c r="O248" s="23"/>
+      <c r="P248" s="23"/>
+      <c r="Q248" s="23"/>
+      <c r="R248" s="23"/>
+      <c r="S248" s="8"/>
+      <c r="T248" s="3"/>
       <c r="U248" s="2"/>
     </row>
-    <row r="249" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S249" s="22"/>
-      <c r="T249" s="23"/>
+    <row r="249" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="23"/>
+      <c r="B249" s="23"/>
+      <c r="C249" s="23"/>
+      <c r="D249" s="23"/>
+      <c r="E249" s="23"/>
+      <c r="F249" s="23"/>
+      <c r="G249" s="23"/>
+      <c r="H249" s="23"/>
+      <c r="I249" s="23"/>
+      <c r="J249" s="23"/>
+      <c r="K249" s="23"/>
+      <c r="L249" s="23"/>
+      <c r="M249" s="23"/>
+      <c r="N249" s="23"/>
+      <c r="O249" s="23"/>
+      <c r="P249" s="23"/>
+      <c r="Q249" s="23"/>
+      <c r="R249" s="23"/>
+      <c r="S249" s="8"/>
+      <c r="T249" s="3"/>
       <c r="U249" s="2"/>
     </row>
-    <row r="250" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S250" s="22"/>
-      <c r="T250" s="23"/>
+    <row r="250" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A250" s="23"/>
+      <c r="B250" s="23"/>
+      <c r="C250" s="23"/>
+      <c r="D250" s="23"/>
+      <c r="E250" s="23"/>
+      <c r="F250" s="23"/>
+      <c r="G250" s="23"/>
+      <c r="H250" s="23"/>
+      <c r="I250" s="23"/>
+      <c r="J250" s="23"/>
+      <c r="K250" s="23"/>
+      <c r="L250" s="23"/>
+      <c r="M250" s="23"/>
+      <c r="N250" s="23"/>
+      <c r="O250" s="23"/>
+      <c r="P250" s="23"/>
+      <c r="Q250" s="23"/>
+      <c r="R250" s="23"/>
+      <c r="S250" s="8"/>
+      <c r="T250" s="3"/>
       <c r="U250" s="2"/>
     </row>
-    <row r="251" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S251" s="22"/>
-      <c r="T251" s="23"/>
+    <row r="251" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A251" s="23"/>
+      <c r="B251" s="23"/>
+      <c r="C251" s="23"/>
+      <c r="D251" s="23"/>
+      <c r="E251" s="23"/>
+      <c r="F251" s="23"/>
+      <c r="G251" s="23"/>
+      <c r="H251" s="23"/>
+      <c r="I251" s="23"/>
+      <c r="J251" s="23"/>
+      <c r="K251" s="23"/>
+      <c r="L251" s="23"/>
+      <c r="M251" s="23"/>
+      <c r="N251" s="23"/>
+      <c r="O251" s="23"/>
+      <c r="P251" s="23"/>
+      <c r="Q251" s="23"/>
+      <c r="R251" s="23"/>
+      <c r="S251" s="8"/>
+      <c r="T251" s="3"/>
       <c r="U251" s="2"/>
     </row>
-    <row r="252" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S252" s="22"/>
-      <c r="T252" s="23"/>
+    <row r="252" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A252" s="23"/>
+      <c r="B252" s="23"/>
+      <c r="C252" s="23"/>
+      <c r="D252" s="23"/>
+      <c r="E252" s="23"/>
+      <c r="F252" s="23"/>
+      <c r="G252" s="23"/>
+      <c r="H252" s="23"/>
+      <c r="I252" s="23"/>
+      <c r="J252" s="23"/>
+      <c r="K252" s="23"/>
+      <c r="L252" s="23"/>
+      <c r="M252" s="23"/>
+      <c r="N252" s="23"/>
+      <c r="O252" s="23"/>
+      <c r="P252" s="23"/>
+      <c r="Q252" s="23"/>
+      <c r="R252" s="23"/>
+      <c r="S252" s="8"/>
+      <c r="T252" s="3"/>
       <c r="U252" s="2"/>
     </row>
-    <row r="253" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S253" s="22"/>
-      <c r="T253" s="23"/>
+    <row r="253" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A253" s="23"/>
+      <c r="B253" s="23"/>
+      <c r="C253" s="23"/>
+      <c r="D253" s="23"/>
+      <c r="E253" s="23"/>
+      <c r="F253" s="23"/>
+      <c r="G253" s="23"/>
+      <c r="H253" s="23"/>
+      <c r="I253" s="23"/>
+      <c r="J253" s="23"/>
+      <c r="K253" s="23"/>
+      <c r="L253" s="23"/>
+      <c r="M253" s="23"/>
+      <c r="N253" s="23"/>
+      <c r="O253" s="23"/>
+      <c r="P253" s="23"/>
+      <c r="Q253" s="23"/>
+      <c r="R253" s="23"/>
+      <c r="S253" s="8"/>
+      <c r="T253" s="3"/>
       <c r="U253" s="2"/>
     </row>
-    <row r="254" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S254" s="22"/>
-      <c r="T254" s="23"/>
+    <row r="254" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A254" s="23"/>
+      <c r="B254" s="23"/>
+      <c r="C254" s="23"/>
+      <c r="D254" s="23"/>
+      <c r="E254" s="23"/>
+      <c r="F254" s="23"/>
+      <c r="G254" s="23"/>
+      <c r="H254" s="23"/>
+      <c r="I254" s="23"/>
+      <c r="J254" s="23"/>
+      <c r="K254" s="23"/>
+      <c r="L254" s="23"/>
+      <c r="M254" s="23"/>
+      <c r="N254" s="23"/>
+      <c r="O254" s="23"/>
+      <c r="P254" s="23"/>
+      <c r="Q254" s="23"/>
+      <c r="R254" s="23"/>
+      <c r="S254" s="8"/>
+      <c r="T254" s="3"/>
       <c r="U254" s="2"/>
     </row>
-    <row r="255" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S255" s="22"/>
-      <c r="T255" s="23"/>
+    <row r="255" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A255" s="23"/>
+      <c r="B255" s="23"/>
+      <c r="C255" s="23"/>
+      <c r="D255" s="23"/>
+      <c r="E255" s="23"/>
+      <c r="F255" s="23"/>
+      <c r="G255" s="23"/>
+      <c r="H255" s="23"/>
+      <c r="I255" s="23"/>
+      <c r="J255" s="23"/>
+      <c r="K255" s="23"/>
+      <c r="L255" s="23"/>
+      <c r="M255" s="23"/>
+      <c r="N255" s="23"/>
+      <c r="O255" s="23"/>
+      <c r="P255" s="23"/>
+      <c r="Q255" s="23"/>
+      <c r="R255" s="23"/>
+      <c r="S255" s="8"/>
+      <c r="T255" s="3"/>
       <c r="U255" s="2"/>
     </row>
-    <row r="256" spans="19:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S256" s="22"/>
-      <c r="T256" s="23"/>
+    <row r="256" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A256" s="23"/>
+      <c r="B256" s="23"/>
+      <c r="C256" s="23"/>
+      <c r="D256" s="23"/>
+      <c r="E256" s="23"/>
+      <c r="F256" s="23"/>
+      <c r="G256" s="23"/>
+      <c r="H256" s="23"/>
+      <c r="I256" s="23"/>
+      <c r="J256" s="23"/>
+      <c r="K256" s="23"/>
+      <c r="L256" s="23"/>
+      <c r="M256" s="23"/>
+      <c r="N256" s="23"/>
+      <c r="O256" s="23"/>
+      <c r="P256" s="23"/>
+      <c r="Q256" s="23"/>
+      <c r="R256" s="23"/>
+      <c r="S256" s="8"/>
+      <c r="T256" s="3"/>
       <c r="U256" s="2"/>
     </row>
     <row r="257" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S257" s="22"/>
-      <c r="T257" s="23"/>
+      <c r="A257" s="23"/>
+      <c r="B257" s="23"/>
+      <c r="C257" s="23"/>
+      <c r="D257" s="23"/>
+      <c r="E257" s="23"/>
+      <c r="F257" s="23"/>
+      <c r="G257" s="23"/>
+      <c r="H257" s="23"/>
+      <c r="I257" s="23"/>
+      <c r="J257" s="23"/>
+      <c r="K257" s="23"/>
+      <c r="L257" s="23"/>
+      <c r="M257" s="23"/>
+      <c r="N257" s="23"/>
+      <c r="O257" s="23"/>
+      <c r="P257" s="23"/>
+      <c r="Q257" s="23"/>
+      <c r="R257" s="23"/>
+      <c r="S257" s="8"/>
+      <c r="T257" s="3"/>
       <c r="U257" s="2"/>
     </row>
     <row r="258" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S258" s="22"/>
-      <c r="T258" s="23"/>
+      <c r="A258" s="23"/>
+      <c r="B258" s="23"/>
+      <c r="C258" s="23"/>
+      <c r="D258" s="23"/>
+      <c r="E258" s="23"/>
+      <c r="F258" s="23"/>
+      <c r="G258" s="23"/>
+      <c r="H258" s="23"/>
+      <c r="I258" s="23"/>
+      <c r="J258" s="23"/>
+      <c r="K258" s="23"/>
+      <c r="L258" s="23"/>
+      <c r="M258" s="23"/>
+      <c r="N258" s="23"/>
+      <c r="O258" s="23"/>
+      <c r="P258" s="23"/>
+      <c r="Q258" s="23"/>
+      <c r="R258" s="23"/>
+      <c r="S258" s="8"/>
+      <c r="T258" s="3"/>
       <c r="U258" s="2"/>
     </row>
     <row r="259" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S259" s="22"/>
-      <c r="T259" s="23"/>
+      <c r="A259" s="23"/>
+      <c r="B259" s="23"/>
+      <c r="C259" s="23"/>
+      <c r="D259" s="23"/>
+      <c r="E259" s="23"/>
+      <c r="F259" s="23"/>
+      <c r="G259" s="23"/>
+      <c r="H259" s="23"/>
+      <c r="I259" s="23"/>
+      <c r="J259" s="23"/>
+      <c r="K259" s="23"/>
+      <c r="L259" s="23"/>
+      <c r="M259" s="23"/>
+      <c r="N259" s="23"/>
+      <c r="O259" s="23"/>
+      <c r="P259" s="23"/>
+      <c r="Q259" s="23"/>
+      <c r="R259" s="23"/>
+      <c r="S259" s="8"/>
+      <c r="T259" s="3"/>
       <c r="U259" s="2"/>
     </row>
     <row r="260" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S260" s="22"/>
-      <c r="T260" s="23"/>
+      <c r="A260" s="23"/>
+      <c r="B260" s="23"/>
+      <c r="C260" s="23"/>
+      <c r="D260" s="23"/>
+      <c r="E260" s="23"/>
+      <c r="F260" s="23"/>
+      <c r="G260" s="23"/>
+      <c r="H260" s="23"/>
+      <c r="I260" s="23"/>
+      <c r="J260" s="23"/>
+      <c r="K260" s="23"/>
+      <c r="L260" s="23"/>
+      <c r="M260" s="23"/>
+      <c r="N260" s="23"/>
+      <c r="O260" s="23"/>
+      <c r="P260" s="23"/>
+      <c r="Q260" s="23"/>
+      <c r="R260" s="23"/>
+      <c r="S260" s="8"/>
+      <c r="T260" s="3"/>
       <c r="U260" s="2"/>
     </row>
     <row r="261" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S261" s="22"/>
-      <c r="T261" s="23"/>
+      <c r="A261" s="23"/>
+      <c r="B261" s="23"/>
+      <c r="C261" s="23"/>
+      <c r="D261" s="23"/>
+      <c r="E261" s="23"/>
+      <c r="F261" s="23"/>
+      <c r="G261" s="23"/>
+      <c r="H261" s="23"/>
+      <c r="I261" s="23"/>
+      <c r="J261" s="23"/>
+      <c r="K261" s="23"/>
+      <c r="L261" s="23"/>
+      <c r="M261" s="23"/>
+      <c r="N261" s="23"/>
+      <c r="O261" s="23"/>
+      <c r="P261" s="23"/>
+      <c r="Q261" s="23"/>
+      <c r="R261" s="23"/>
+      <c r="S261" s="8"/>
+      <c r="T261" s="3"/>
       <c r="U261" s="2"/>
     </row>
     <row r="262" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S262" s="22"/>
-      <c r="T262" s="23"/>
+      <c r="A262" s="23"/>
+      <c r="B262" s="23"/>
+      <c r="C262" s="23"/>
+      <c r="D262" s="23"/>
+      <c r="E262" s="23"/>
+      <c r="F262" s="23"/>
+      <c r="G262" s="23"/>
+      <c r="H262" s="23"/>
+      <c r="I262" s="23"/>
+      <c r="J262" s="23"/>
+      <c r="K262" s="23"/>
+      <c r="L262" s="23"/>
+      <c r="M262" s="23"/>
+      <c r="N262" s="23"/>
+      <c r="O262" s="23"/>
+      <c r="P262" s="23"/>
+      <c r="Q262" s="23"/>
+      <c r="R262" s="23"/>
+      <c r="S262" s="8"/>
+      <c r="T262" s="3"/>
       <c r="U262" s="2"/>
     </row>
     <row r="263" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S263" s="22"/>
-      <c r="T263" s="23"/>
+      <c r="A263" s="23"/>
+      <c r="B263" s="23"/>
+      <c r="C263" s="23"/>
+      <c r="D263" s="23"/>
+      <c r="E263" s="23"/>
+      <c r="F263" s="23"/>
+      <c r="G263" s="23"/>
+      <c r="H263" s="23"/>
+      <c r="I263" s="23"/>
+      <c r="J263" s="23"/>
+      <c r="K263" s="23"/>
+      <c r="L263" s="23"/>
+      <c r="M263" s="23"/>
+      <c r="N263" s="23"/>
+      <c r="O263" s="23"/>
+      <c r="P263" s="23"/>
+      <c r="Q263" s="23"/>
+      <c r="R263" s="23"/>
+      <c r="S263" s="8"/>
+      <c r="T263" s="3"/>
       <c r="U263" s="2"/>
     </row>
     <row r="264" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="S264" s="22"/>
-      <c r="T264" s="23"/>
+      <c r="A264" s="23"/>
+      <c r="B264" s="23"/>
+      <c r="C264" s="23"/>
+      <c r="D264" s="23"/>
+      <c r="E264" s="23"/>
+      <c r="F264" s="23"/>
+      <c r="G264" s="23"/>
+      <c r="H264" s="23"/>
+      <c r="I264" s="23"/>
+      <c r="J264" s="23"/>
+      <c r="K264" s="23"/>
+      <c r="L264" s="23"/>
+      <c r="M264" s="23"/>
+      <c r="N264" s="23"/>
+      <c r="O264" s="23"/>
+      <c r="P264" s="23"/>
+      <c r="Q264" s="23"/>
+      <c r="R264" s="23"/>
+      <c r="S264" s="8"/>
+      <c r="T264" s="3"/>
       <c r="U264" s="2"/>
     </row>
     <row r="265" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -7925,9 +8584,7 @@
       <c r="P407" s="23"/>
       <c r="Q407" s="23"/>
       <c r="R407" s="23"/>
-      <c r="S407" s="8"/>
-      <c r="T407" s="3"/>
-      <c r="U407" s="2"/>
+      <c r="S407" s="23"/>
     </row>
     <row r="408" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A408" s="23"/>
@@ -7948,9 +8605,7 @@
       <c r="P408" s="23"/>
       <c r="Q408" s="23"/>
       <c r="R408" s="23"/>
-      <c r="S408" s="8"/>
-      <c r="T408" s="3"/>
-      <c r="U408" s="2"/>
+      <c r="S408" s="23"/>
     </row>
     <row r="409" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A409" s="23"/>
@@ -7971,9 +8626,7 @@
       <c r="P409" s="23"/>
       <c r="Q409" s="23"/>
       <c r="R409" s="23"/>
-      <c r="S409" s="8"/>
-      <c r="T409" s="3"/>
-      <c r="U409" s="2"/>
+      <c r="S409" s="23"/>
     </row>
     <row r="410" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A410" s="23"/>
@@ -7994,9 +8647,7 @@
       <c r="P410" s="23"/>
       <c r="Q410" s="23"/>
       <c r="R410" s="23"/>
-      <c r="S410" s="8"/>
-      <c r="T410" s="3"/>
-      <c r="U410" s="2"/>
+      <c r="S410" s="23"/>
     </row>
     <row r="411" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A411" s="23"/>
@@ -8017,9 +8668,7 @@
       <c r="P411" s="23"/>
       <c r="Q411" s="23"/>
       <c r="R411" s="23"/>
-      <c r="S411" s="8"/>
-      <c r="T411" s="3"/>
-      <c r="U411" s="2"/>
+      <c r="S411" s="23"/>
     </row>
     <row r="412" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A412" s="23"/>
@@ -8040,9 +8689,7 @@
       <c r="P412" s="23"/>
       <c r="Q412" s="23"/>
       <c r="R412" s="23"/>
-      <c r="S412" s="8"/>
-      <c r="T412" s="3"/>
-      <c r="U412" s="2"/>
+      <c r="S412" s="23"/>
     </row>
     <row r="413" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A413" s="23"/>
@@ -8063,9 +8710,7 @@
       <c r="P413" s="23"/>
       <c r="Q413" s="23"/>
       <c r="R413" s="23"/>
-      <c r="S413" s="8"/>
-      <c r="T413" s="3"/>
-      <c r="U413" s="2"/>
+      <c r="S413" s="23"/>
     </row>
     <row r="414" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A414" s="23"/>
@@ -8086,9 +8731,7 @@
       <c r="P414" s="23"/>
       <c r="Q414" s="23"/>
       <c r="R414" s="23"/>
-      <c r="S414" s="8"/>
-      <c r="T414" s="3"/>
-      <c r="U414" s="2"/>
+      <c r="S414" s="23"/>
     </row>
     <row r="415" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A415" s="23"/>
@@ -8109,597 +8752,27 @@
       <c r="P415" s="23"/>
       <c r="Q415" s="23"/>
       <c r="R415" s="23"/>
-      <c r="S415" s="8"/>
-      <c r="T415" s="3"/>
-      <c r="U415" s="2"/>
-    </row>
-    <row r="416" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A416" s="23"/>
-      <c r="B416" s="23"/>
-      <c r="C416" s="23"/>
-      <c r="D416" s="23"/>
-      <c r="E416" s="23"/>
-      <c r="F416" s="23"/>
-      <c r="G416" s="23"/>
-      <c r="H416" s="23"/>
-      <c r="I416" s="23"/>
-      <c r="J416" s="23"/>
-      <c r="K416" s="23"/>
-      <c r="L416" s="23"/>
-      <c r="M416" s="23"/>
-      <c r="N416" s="23"/>
-      <c r="O416" s="23"/>
-      <c r="P416" s="23"/>
-      <c r="Q416" s="23"/>
-      <c r="R416" s="23"/>
-      <c r="S416" s="8"/>
-      <c r="T416" s="3"/>
-      <c r="U416" s="2"/>
-    </row>
-    <row r="417" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A417" s="23"/>
-      <c r="B417" s="23"/>
-      <c r="C417" s="23"/>
-      <c r="D417" s="23"/>
-      <c r="E417" s="23"/>
-      <c r="F417" s="23"/>
-      <c r="G417" s="23"/>
-      <c r="H417" s="23"/>
-      <c r="I417" s="23"/>
-      <c r="J417" s="23"/>
-      <c r="K417" s="23"/>
-      <c r="L417" s="23"/>
-      <c r="M417" s="23"/>
-      <c r="N417" s="23"/>
-      <c r="O417" s="23"/>
-      <c r="P417" s="23"/>
-      <c r="Q417" s="23"/>
-      <c r="R417" s="23"/>
-      <c r="S417" s="8"/>
-      <c r="T417" s="3"/>
-      <c r="U417" s="2"/>
-    </row>
-    <row r="418" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A418" s="23"/>
-      <c r="B418" s="23"/>
-      <c r="C418" s="23"/>
-      <c r="D418" s="23"/>
-      <c r="E418" s="23"/>
-      <c r="F418" s="23"/>
-      <c r="G418" s="23"/>
-      <c r="H418" s="23"/>
-      <c r="I418" s="23"/>
-      <c r="J418" s="23"/>
-      <c r="K418" s="23"/>
-      <c r="L418" s="23"/>
-      <c r="M418" s="23"/>
-      <c r="N418" s="23"/>
-      <c r="O418" s="23"/>
-      <c r="P418" s="23"/>
-      <c r="Q418" s="23"/>
-      <c r="R418" s="23"/>
-      <c r="S418" s="8"/>
-      <c r="T418" s="3"/>
-      <c r="U418" s="2"/>
-    </row>
-    <row r="419" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A419" s="23"/>
-      <c r="B419" s="23"/>
-      <c r="C419" s="23"/>
-      <c r="D419" s="23"/>
-      <c r="E419" s="23"/>
-      <c r="F419" s="23"/>
-      <c r="G419" s="23"/>
-      <c r="H419" s="23"/>
-      <c r="I419" s="23"/>
-      <c r="J419" s="23"/>
-      <c r="K419" s="23"/>
-      <c r="L419" s="23"/>
-      <c r="M419" s="23"/>
-      <c r="N419" s="23"/>
-      <c r="O419" s="23"/>
-      <c r="P419" s="23"/>
-      <c r="Q419" s="23"/>
-      <c r="R419" s="23"/>
-      <c r="S419" s="8"/>
-      <c r="T419" s="3"/>
-      <c r="U419" s="2"/>
-    </row>
-    <row r="420" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A420" s="23"/>
-      <c r="B420" s="23"/>
-      <c r="C420" s="23"/>
-      <c r="D420" s="23"/>
-      <c r="E420" s="23"/>
-      <c r="F420" s="23"/>
-      <c r="G420" s="23"/>
-      <c r="H420" s="23"/>
-      <c r="I420" s="23"/>
-      <c r="J420" s="23"/>
-      <c r="K420" s="23"/>
-      <c r="L420" s="23"/>
-      <c r="M420" s="23"/>
-      <c r="N420" s="23"/>
-      <c r="O420" s="23"/>
-      <c r="P420" s="23"/>
-      <c r="Q420" s="23"/>
-      <c r="R420" s="23"/>
-      <c r="S420" s="8"/>
-      <c r="T420" s="3"/>
-      <c r="U420" s="2"/>
-    </row>
-    <row r="421" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A421" s="23"/>
-      <c r="B421" s="23"/>
-      <c r="C421" s="23"/>
-      <c r="D421" s="23"/>
-      <c r="E421" s="23"/>
-      <c r="F421" s="23"/>
-      <c r="G421" s="23"/>
-      <c r="H421" s="23"/>
-      <c r="I421" s="23"/>
-      <c r="J421" s="23"/>
-      <c r="K421" s="23"/>
-      <c r="L421" s="23"/>
-      <c r="M421" s="23"/>
-      <c r="N421" s="23"/>
-      <c r="O421" s="23"/>
-      <c r="P421" s="23"/>
-      <c r="Q421" s="23"/>
-      <c r="R421" s="23"/>
-      <c r="S421" s="8"/>
-      <c r="T421" s="3"/>
-      <c r="U421" s="2"/>
-    </row>
-    <row r="422" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A422" s="23"/>
-      <c r="B422" s="23"/>
-      <c r="C422" s="23"/>
-      <c r="D422" s="23"/>
-      <c r="E422" s="23"/>
-      <c r="F422" s="23"/>
-      <c r="G422" s="23"/>
-      <c r="H422" s="23"/>
-      <c r="I422" s="23"/>
-      <c r="J422" s="23"/>
-      <c r="K422" s="23"/>
-      <c r="L422" s="23"/>
-      <c r="M422" s="23"/>
-      <c r="N422" s="23"/>
-      <c r="O422" s="23"/>
-      <c r="P422" s="23"/>
-      <c r="Q422" s="23"/>
-      <c r="R422" s="23"/>
-      <c r="S422" s="8"/>
-      <c r="T422" s="3"/>
-      <c r="U422" s="2"/>
-    </row>
-    <row r="423" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A423" s="23"/>
-      <c r="B423" s="23"/>
-      <c r="C423" s="23"/>
-      <c r="D423" s="23"/>
-      <c r="E423" s="23"/>
-      <c r="F423" s="23"/>
-      <c r="G423" s="23"/>
-      <c r="H423" s="23"/>
-      <c r="I423" s="23"/>
-      <c r="J423" s="23"/>
-      <c r="K423" s="23"/>
-      <c r="L423" s="23"/>
-      <c r="M423" s="23"/>
-      <c r="N423" s="23"/>
-      <c r="O423" s="23"/>
-      <c r="P423" s="23"/>
-      <c r="Q423" s="23"/>
-      <c r="R423" s="23"/>
-      <c r="S423" s="8"/>
-      <c r="T423" s="3"/>
-      <c r="U423" s="2"/>
-    </row>
-    <row r="424" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A424" s="23"/>
-      <c r="B424" s="23"/>
-      <c r="C424" s="23"/>
-      <c r="D424" s="23"/>
-      <c r="E424" s="23"/>
-      <c r="F424" s="23"/>
-      <c r="G424" s="23"/>
-      <c r="H424" s="23"/>
-      <c r="I424" s="23"/>
-      <c r="J424" s="23"/>
-      <c r="K424" s="23"/>
-      <c r="L424" s="23"/>
-      <c r="M424" s="23"/>
-      <c r="N424" s="23"/>
-      <c r="O424" s="23"/>
-      <c r="P424" s="23"/>
-      <c r="Q424" s="23"/>
-      <c r="R424" s="23"/>
-      <c r="S424" s="8"/>
-      <c r="T424" s="3"/>
-      <c r="U424" s="2"/>
-    </row>
-    <row r="425" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A425" s="23"/>
-      <c r="B425" s="23"/>
-      <c r="C425" s="23"/>
-      <c r="D425" s="23"/>
-      <c r="E425" s="23"/>
-      <c r="F425" s="23"/>
-      <c r="G425" s="23"/>
-      <c r="H425" s="23"/>
-      <c r="I425" s="23"/>
-      <c r="J425" s="23"/>
-      <c r="K425" s="23"/>
-      <c r="L425" s="23"/>
-      <c r="M425" s="23"/>
-      <c r="N425" s="23"/>
-      <c r="O425" s="23"/>
-      <c r="P425" s="23"/>
-      <c r="Q425" s="23"/>
-      <c r="R425" s="23"/>
-      <c r="S425" s="8"/>
-      <c r="T425" s="3"/>
-      <c r="U425" s="2"/>
-    </row>
-    <row r="426" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A426" s="23"/>
-      <c r="B426" s="23"/>
-      <c r="C426" s="23"/>
-      <c r="D426" s="23"/>
-      <c r="E426" s="23"/>
-      <c r="F426" s="23"/>
-      <c r="G426" s="23"/>
-      <c r="H426" s="23"/>
-      <c r="I426" s="23"/>
-      <c r="J426" s="23"/>
-      <c r="K426" s="23"/>
-      <c r="L426" s="23"/>
-      <c r="M426" s="23"/>
-      <c r="N426" s="23"/>
-      <c r="O426" s="23"/>
-      <c r="P426" s="23"/>
-      <c r="Q426" s="23"/>
-      <c r="R426" s="23"/>
-      <c r="S426" s="8"/>
-      <c r="T426" s="3"/>
-      <c r="U426" s="2"/>
-    </row>
-    <row r="427" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A427" s="23"/>
-      <c r="B427" s="23"/>
-      <c r="C427" s="23"/>
-      <c r="D427" s="23"/>
-      <c r="E427" s="23"/>
-      <c r="F427" s="23"/>
-      <c r="G427" s="23"/>
-      <c r="H427" s="23"/>
-      <c r="I427" s="23"/>
-      <c r="J427" s="23"/>
-      <c r="K427" s="23"/>
-      <c r="L427" s="23"/>
-      <c r="M427" s="23"/>
-      <c r="N427" s="23"/>
-      <c r="O427" s="23"/>
-      <c r="P427" s="23"/>
-      <c r="Q427" s="23"/>
-      <c r="R427" s="23"/>
-      <c r="S427" s="8"/>
-      <c r="T427" s="3"/>
-      <c r="U427" s="2"/>
-    </row>
-    <row r="428" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A428" s="23"/>
-      <c r="B428" s="23"/>
-      <c r="C428" s="23"/>
-      <c r="D428" s="23"/>
-      <c r="E428" s="23"/>
-      <c r="F428" s="23"/>
-      <c r="G428" s="23"/>
-      <c r="H428" s="23"/>
-      <c r="I428" s="23"/>
-      <c r="J428" s="23"/>
-      <c r="K428" s="23"/>
-      <c r="L428" s="23"/>
-      <c r="M428" s="23"/>
-      <c r="N428" s="23"/>
-      <c r="O428" s="23"/>
-      <c r="P428" s="23"/>
-      <c r="Q428" s="23"/>
-      <c r="R428" s="23"/>
-      <c r="S428" s="8"/>
-      <c r="T428" s="3"/>
-      <c r="U428" s="2"/>
-    </row>
-    <row r="429" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A429" s="23"/>
-      <c r="B429" s="23"/>
-      <c r="C429" s="23"/>
-      <c r="D429" s="23"/>
-      <c r="E429" s="23"/>
-      <c r="F429" s="23"/>
-      <c r="G429" s="23"/>
-      <c r="H429" s="23"/>
-      <c r="I429" s="23"/>
-      <c r="J429" s="23"/>
-      <c r="K429" s="23"/>
-      <c r="L429" s="23"/>
-      <c r="M429" s="23"/>
-      <c r="N429" s="23"/>
-      <c r="O429" s="23"/>
-      <c r="P429" s="23"/>
-      <c r="Q429" s="23"/>
-      <c r="R429" s="23"/>
-      <c r="S429" s="8"/>
-      <c r="T429" s="3"/>
-      <c r="U429" s="2"/>
-    </row>
-    <row r="430" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A430" s="23"/>
-      <c r="B430" s="23"/>
-      <c r="C430" s="23"/>
-      <c r="D430" s="23"/>
-      <c r="E430" s="23"/>
-      <c r="F430" s="23"/>
-      <c r="G430" s="23"/>
-      <c r="H430" s="23"/>
-      <c r="I430" s="23"/>
-      <c r="J430" s="23"/>
-      <c r="K430" s="23"/>
-      <c r="L430" s="23"/>
-      <c r="M430" s="23"/>
-      <c r="N430" s="23"/>
-      <c r="O430" s="23"/>
-      <c r="P430" s="23"/>
-      <c r="Q430" s="23"/>
-      <c r="R430" s="23"/>
-      <c r="S430" s="8"/>
-      <c r="T430" s="3"/>
-      <c r="U430" s="2"/>
-    </row>
-    <row r="431" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A431" s="23"/>
-      <c r="B431" s="23"/>
-      <c r="C431" s="23"/>
-      <c r="D431" s="23"/>
-      <c r="E431" s="23"/>
-      <c r="F431" s="23"/>
-      <c r="G431" s="23"/>
-      <c r="H431" s="23"/>
-      <c r="I431" s="23"/>
-      <c r="J431" s="23"/>
-      <c r="K431" s="23"/>
-      <c r="L431" s="23"/>
-      <c r="M431" s="23"/>
-      <c r="N431" s="23"/>
-      <c r="O431" s="23"/>
-      <c r="P431" s="23"/>
-      <c r="Q431" s="23"/>
-      <c r="R431" s="23"/>
-      <c r="S431" s="8"/>
-      <c r="T431" s="3"/>
-      <c r="U431" s="2"/>
-    </row>
-    <row r="432" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A432" s="23"/>
-      <c r="B432" s="23"/>
-      <c r="C432" s="23"/>
-      <c r="D432" s="23"/>
-      <c r="E432" s="23"/>
-      <c r="F432" s="23"/>
-      <c r="G432" s="23"/>
-      <c r="H432" s="23"/>
-      <c r="I432" s="23"/>
-      <c r="J432" s="23"/>
-      <c r="K432" s="23"/>
-      <c r="L432" s="23"/>
-      <c r="M432" s="23"/>
-      <c r="N432" s="23"/>
-      <c r="O432" s="23"/>
-      <c r="P432" s="23"/>
-      <c r="Q432" s="23"/>
-      <c r="R432" s="23"/>
-      <c r="S432" s="8"/>
-      <c r="T432" s="3"/>
-      <c r="U432" s="2"/>
-    </row>
-    <row r="433" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A433" s="23"/>
-      <c r="B433" s="23"/>
-      <c r="C433" s="23"/>
-      <c r="D433" s="23"/>
-      <c r="E433" s="23"/>
-      <c r="F433" s="23"/>
-      <c r="G433" s="23"/>
-      <c r="H433" s="23"/>
-      <c r="I433" s="23"/>
-      <c r="J433" s="23"/>
-      <c r="K433" s="23"/>
-      <c r="L433" s="23"/>
-      <c r="M433" s="23"/>
-      <c r="N433" s="23"/>
-      <c r="O433" s="23"/>
-      <c r="P433" s="23"/>
-      <c r="Q433" s="23"/>
-      <c r="R433" s="23"/>
-      <c r="S433" s="23"/>
-    </row>
-    <row r="434" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A434" s="23"/>
-      <c r="B434" s="23"/>
-      <c r="C434" s="23"/>
-      <c r="D434" s="23"/>
-      <c r="E434" s="23"/>
-      <c r="F434" s="23"/>
-      <c r="G434" s="23"/>
-      <c r="H434" s="23"/>
-      <c r="I434" s="23"/>
-      <c r="J434" s="23"/>
-      <c r="K434" s="23"/>
-      <c r="L434" s="23"/>
-      <c r="M434" s="23"/>
-      <c r="N434" s="23"/>
-      <c r="O434" s="23"/>
-      <c r="P434" s="23"/>
-      <c r="Q434" s="23"/>
-      <c r="R434" s="23"/>
-      <c r="S434" s="23"/>
-    </row>
-    <row r="435" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A435" s="23"/>
-      <c r="B435" s="23"/>
-      <c r="C435" s="23"/>
-      <c r="D435" s="23"/>
-      <c r="E435" s="23"/>
-      <c r="F435" s="23"/>
-      <c r="G435" s="23"/>
-      <c r="H435" s="23"/>
-      <c r="I435" s="23"/>
-      <c r="J435" s="23"/>
-      <c r="K435" s="23"/>
-      <c r="L435" s="23"/>
-      <c r="M435" s="23"/>
-      <c r="N435" s="23"/>
-      <c r="O435" s="23"/>
-      <c r="P435" s="23"/>
-      <c r="Q435" s="23"/>
-      <c r="R435" s="23"/>
-      <c r="S435" s="23"/>
-    </row>
-    <row r="436" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A436" s="23"/>
-      <c r="B436" s="23"/>
-      <c r="C436" s="23"/>
-      <c r="D436" s="23"/>
-      <c r="E436" s="23"/>
-      <c r="F436" s="23"/>
-      <c r="G436" s="23"/>
-      <c r="H436" s="23"/>
-      <c r="I436" s="23"/>
-      <c r="J436" s="23"/>
-      <c r="K436" s="23"/>
-      <c r="L436" s="23"/>
-      <c r="M436" s="23"/>
-      <c r="N436" s="23"/>
-      <c r="O436" s="23"/>
-      <c r="P436" s="23"/>
-      <c r="Q436" s="23"/>
-      <c r="R436" s="23"/>
-      <c r="S436" s="23"/>
-    </row>
-    <row r="437" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A437" s="23"/>
-      <c r="B437" s="23"/>
-      <c r="C437" s="23"/>
-      <c r="D437" s="23"/>
-      <c r="E437" s="23"/>
-      <c r="F437" s="23"/>
-      <c r="G437" s="23"/>
-      <c r="H437" s="23"/>
-      <c r="I437" s="23"/>
-      <c r="J437" s="23"/>
-      <c r="K437" s="23"/>
-      <c r="L437" s="23"/>
-      <c r="M437" s="23"/>
-      <c r="N437" s="23"/>
-      <c r="O437" s="23"/>
-      <c r="P437" s="23"/>
-      <c r="Q437" s="23"/>
-      <c r="R437" s="23"/>
-      <c r="S437" s="23"/>
-    </row>
-    <row r="438" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A438" s="23"/>
-      <c r="B438" s="23"/>
-      <c r="C438" s="23"/>
-      <c r="D438" s="23"/>
-      <c r="E438" s="23"/>
-      <c r="F438" s="23"/>
-      <c r="G438" s="23"/>
-      <c r="H438" s="23"/>
-      <c r="I438" s="23"/>
-      <c r="J438" s="23"/>
-      <c r="K438" s="23"/>
-      <c r="L438" s="23"/>
-      <c r="M438" s="23"/>
-      <c r="N438" s="23"/>
-      <c r="O438" s="23"/>
-      <c r="P438" s="23"/>
-      <c r="Q438" s="23"/>
-      <c r="R438" s="23"/>
-      <c r="S438" s="23"/>
-    </row>
-    <row r="439" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A439" s="23"/>
-      <c r="B439" s="23"/>
-      <c r="C439" s="23"/>
-      <c r="D439" s="23"/>
-      <c r="E439" s="23"/>
-      <c r="F439" s="23"/>
-      <c r="G439" s="23"/>
-      <c r="H439" s="23"/>
-      <c r="I439" s="23"/>
-      <c r="J439" s="23"/>
-      <c r="K439" s="23"/>
-      <c r="L439" s="23"/>
-      <c r="M439" s="23"/>
-      <c r="N439" s="23"/>
-      <c r="O439" s="23"/>
-      <c r="P439" s="23"/>
-      <c r="Q439" s="23"/>
-      <c r="R439" s="23"/>
-      <c r="S439" s="23"/>
-    </row>
-    <row r="440" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A440" s="23"/>
-      <c r="B440" s="23"/>
-      <c r="C440" s="23"/>
-      <c r="D440" s="23"/>
-      <c r="E440" s="23"/>
-      <c r="F440" s="23"/>
-      <c r="G440" s="23"/>
-      <c r="H440" s="23"/>
-      <c r="I440" s="23"/>
-      <c r="J440" s="23"/>
-      <c r="K440" s="23"/>
-      <c r="L440" s="23"/>
-      <c r="M440" s="23"/>
-      <c r="N440" s="23"/>
-      <c r="O440" s="23"/>
-      <c r="P440" s="23"/>
-      <c r="Q440" s="23"/>
-      <c r="R440" s="23"/>
-      <c r="S440" s="23"/>
-    </row>
-    <row r="441" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A441" s="23"/>
-      <c r="B441" s="23"/>
-      <c r="C441" s="23"/>
-      <c r="D441" s="23"/>
-      <c r="E441" s="23"/>
-      <c r="F441" s="23"/>
-      <c r="G441" s="23"/>
-      <c r="H441" s="23"/>
-      <c r="I441" s="23"/>
-      <c r="J441" s="23"/>
-      <c r="K441" s="23"/>
-      <c r="L441" s="23"/>
-      <c r="M441" s="23"/>
-      <c r="N441" s="23"/>
-      <c r="O441" s="23"/>
-      <c r="P441" s="23"/>
-      <c r="Q441" s="23"/>
-      <c r="R441" s="23"/>
-      <c r="S441" s="23"/>
+      <c r="S415" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:Q105"/>
-    <mergeCell ref="A94:D95"/>
-    <mergeCell ref="E94:Q95"/>
-    <mergeCell ref="R94:R95"/>
+  <mergeCells count="36">
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:Q114"/>
+    <mergeCell ref="A106:M107"/>
+    <mergeCell ref="N106:Q106"/>
+    <mergeCell ref="N107:Q107"/>
+    <mergeCell ref="A109:Q110"/>
+    <mergeCell ref="R109:R110"/>
+    <mergeCell ref="R74:R75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="G2:S3"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A36:M37"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="A39:Q40"/>
+    <mergeCell ref="R39:R40"/>
     <mergeCell ref="E86:Q86"/>
     <mergeCell ref="C93:D93"/>
     <mergeCell ref="E93:Q93"/>
@@ -8714,15 +8787,11 @@
     <mergeCell ref="N71:Q71"/>
     <mergeCell ref="N72:Q72"/>
     <mergeCell ref="A74:Q75"/>
-    <mergeCell ref="R74:R75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="G2:S3"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A36:M37"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="A39:Q40"/>
-    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:Q105"/>
+    <mergeCell ref="A94:D95"/>
+    <mergeCell ref="E94:Q95"/>
+    <mergeCell ref="R94:R95"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
